--- a/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
+++ b/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,12 +527,12 @@
       <c r="S1" s="1" t="inlineStr"/>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>yield on minimal media at 1.0% exp. growth</t>
+          <t>vprod</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>FBA: yield on minimal media at 1.0% exp. growth</t>
+          <t>RBA: vprod</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -547,30 +547,10 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>carbonSlack</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: carbonSlack</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>vprod</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: vprod</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>yield</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>RBA: yield</t>
         </is>
@@ -596,26 +576,18 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382212023962</v>
+        <v>17.81382216105634</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516930700739</v>
+        <v>0.5695516943750848</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H2" t="n">
-        <v>10.33377596184721</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3303962257594239</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5800987509640747</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -625,27 +597,11 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="n">
-        <v>10.33377596184721</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
-        <v>0.3303962257594239</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -667,26 +623,18 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.5553019381098</v>
+        <v>2.555301936198459</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195099690083</v>
+        <v>0.3122195097354233</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203628807</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.765885265022023</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1933056554010707</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6191338120422352</v>
-      </c>
+        <v>-5.549610203629657</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>0.08</v>
       </c>
@@ -698,27 +646,11 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>3.765885265022023</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>0.1933056554010707</v>
-      </c>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -748,18 +680,10 @@
       <c r="G4" t="n">
         <v>-5.545419566892341</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.789907146773598</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1813025547685259</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2724618603223352</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0.13</v>
       </c>
@@ -771,27 +695,11 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="n">
-        <v>4.789907146773598</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>0.1813025547685259</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -821,18 +729,10 @@
       <c r="G5" t="n">
         <v>-5.544759808667549</v>
       </c>
-      <c r="H5" t="n">
-        <v>8.273785303549822</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3131706663980492</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4187041676559408</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>0.14</v>
       </c>
@@ -844,27 +744,11 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="n">
-        <v>8.273785303549822</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>0.3131706663980492</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -894,18 +778,10 @@
       <c r="G6" t="n">
         <v>-5.545419566892341</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.789907146773598</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1813025547685259</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2724618603223352</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>0.13</v>
       </c>
@@ -917,27 +793,11 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="n">
-        <v>4.789907146773598</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>0.1813025547685259</v>
-      </c>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -967,18 +827,10 @@
       <c r="G7" t="n">
         <v>-5.544759808667549</v>
       </c>
-      <c r="H7" t="n">
-        <v>8.273785303549822</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.3131706663980492</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.4187041676559408</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>0.14</v>
       </c>
@@ -990,27 +842,11 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="n">
-        <v>8.273785303549822</v>
-      </c>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="n">
-        <v>0.3131706663980492</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1040,18 +876,10 @@
       <c r="G8" t="n">
         <v>-5.549441423005486</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.201832471428046</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1844659391575074</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.4009476539841684</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
       </c>
@@ -1063,27 +891,11 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="n">
-        <v>3.201832471428046</v>
-      </c>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="n">
-        <v>0.1844659391575074</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1105,26 +917,18 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697655376507</v>
+        <v>2.844697658781199</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995809453898</v>
+        <v>0.2800995812806286</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.268715469421109</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1249224748549778</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.4459930801514966</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1134,27 +938,11 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="n">
-        <v>1.268715469421109</v>
-      </c>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>0.1249224748549778</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1176,26 +964,18 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.008732115512442</v>
+        <v>5.008732116108107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4516357717353658</v>
+        <v>0.4516357717891071</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686668594404</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12.86101832859704</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.4870179765362261</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.078342343576789</v>
-      </c>
+        <v>-5.547686668594033</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>0.11</v>
       </c>
@@ -1207,27 +987,11 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="n">
-        <v>12.86101832859704</v>
-      </c>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="n">
-        <v>0.4870179765362261</v>
-      </c>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1249,26 +1013,18 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856556537682</v>
+        <v>4.161856556537492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3085281699700558</v>
+        <v>0.3085281699700435</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.549820853803026</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8.787635674310746</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2736880943320031</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.8870765167361082</v>
-      </c>
+        <v>-5.549820853802994</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>0.04</v>
       </c>
@@ -1280,27 +1036,11 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="n">
-        <v>8.787635674310746</v>
-      </c>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="n">
-        <v>0.2736880943320031</v>
-      </c>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1322,26 +1062,18 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880216</v>
+        <v>12.48937108880211</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293748</v>
+        <v>0.7667243171293716</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H12" t="n">
-        <v>4.983742289914693</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.3059526678176485</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.3990386909380141</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1351,27 +1083,11 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="n">
-        <v>4.983742289914693</v>
-      </c>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="n">
-        <v>0.3059526678176485</v>
-      </c>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1393,26 +1109,18 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611823931661305</v>
+        <v>2.611823932281909</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262860820791775</v>
+        <v>0.4262860821805087</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274707767</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.087637525036586</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.2116712333244736</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.4965473709394017</v>
-      </c>
+        <v>-5.548570274707247</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>0.15</v>
       </c>
@@ -1424,27 +1132,11 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="n">
-        <v>3.087637525036586</v>
-      </c>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="n">
-        <v>0.2116712333244736</v>
-      </c>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1466,26 +1158,18 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421396</v>
+        <v>1.016994536421393</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207207016</v>
+        <v>0.2607839207207009</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402242271</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.716460988511337</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.07718964089911999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.2959907983812765</v>
-      </c>
+        <v>-5.550180402242267</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>0.1</v>
       </c>
@@ -1497,27 +1181,11 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>0.716460988511337</v>
-      </c>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="n">
-        <v>0.07718964089911999</v>
-      </c>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1547,18 +1215,10 @@
       <c r="G15" t="n">
         <v>-5.550717505065815</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.728351265847033</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.07419824044325798</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.309941850422557</v>
-      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>0.005</v>
       </c>
@@ -1570,27 +1230,11 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>0.728351265847033</v>
-      </c>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="n">
-        <v>0.07419824044325798</v>
-      </c>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1612,26 +1256,18 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.68640372837228</v>
+        <v>4.686403745999173</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539429141642</v>
+        <v>0.3474539442214044</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184128068436</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12.36424248898357</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3850803663334749</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.108291830289018</v>
-      </c>
+        <v>-5.549184128062568</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>0.06</v>
       </c>
@@ -1643,27 +1279,11 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>12.36424248898357</v>
-      </c>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="n">
-        <v>0.3850803663334749</v>
-      </c>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1685,26 +1305,18 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860211570646928</v>
+        <v>8.860211916536819</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334043275107</v>
+        <v>0.7940334389869373</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810175715775</v>
-      </c>
-      <c r="H17" t="n">
-        <v>21.15294223104726</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.7916818480251674</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.9970384667829751</v>
-      </c>
+        <v>-5.516810150276244</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
       </c>
@@ -1716,27 +1328,11 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>21.15294223104726</v>
-      </c>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
-        <v>0.7916818480251674</v>
-      </c>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1758,26 +1354,18 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460770451315</v>
+        <v>3.836460770451227</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941614562846</v>
+        <v>0.5375941614562719</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244910345</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.807363077610059</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2829844102065842</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.526390408407729</v>
-      </c>
+        <v>-5.549254244910347</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
       </c>
@@ -1789,27 +1377,11 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>4.807363077610059</v>
-      </c>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="n">
-        <v>0.2829844102065842</v>
-      </c>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1839,18 +1411,10 @@
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H19" t="n">
-        <v>1.076923189865303</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.123197265726096</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.2713272730187974</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1860,27 +1424,11 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>1.076923189865303</v>
-      </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="n">
-        <v>0.123197265726096</v>
-      </c>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1902,26 +1450,18 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996364001457181</v>
+        <v>0.09996363049204229</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355252700336561</v>
+        <v>0.235525247597535</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.100790276286722</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2374729155094452</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-0.332925</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.008269369463034</v>
-      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1929,49 +1469,21 @@
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Fed-batch; 2L; 40 g/L after 24 h; pH 5.0; sucrose as substrate</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4607723/</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.005138585269748739</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1000</v>
-      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>Rounded up trace element uptakes to account for contributions from seed cultures, until yields could be replicated</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="n">
-        <v>-0.332925</v>
-      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>0.100790276286722</v>
-      </c>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="n">
-        <v>0.2374729155094452</v>
-      </c>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1993,26 +1505,18 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673721518158</v>
+        <v>0.1141673830273931</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428831790311422</v>
+        <v>0.2428832021681798</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.115079869491406</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.2448244539376226</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-0.332925</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.007992628037166</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -2020,45 +1524,17 @@
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Fed-batch; 2L; 40 g/L after 24 h; pH 5.0; sucrose as substrate</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4607723/</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.000753211910791016</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1000</v>
-      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="n">
-        <v>-0.332925</v>
-      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>0.115079869491406</v>
-      </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="n">
-        <v>0.2448244539376226</v>
-      </c>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2080,26 +1556,18 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115573255</v>
+        <v>4.826633115573284</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4979383117364445</v>
+        <v>0.4979383117364487</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771109</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.768759915832044</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.206591560139125</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.4148938839806979</v>
-      </c>
+        <v>-5.547262026771095</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>0.13</v>
       </c>
@@ -2111,27 +1579,11 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="n">
-        <v>4.768759915832044</v>
-      </c>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="n">
-        <v>0.206591560139125</v>
-      </c>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2153,26 +1605,18 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143874209226</v>
+        <v>2.511143874209235</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710873792966</v>
+        <v>0.3475710873792977</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.491956789050074</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.06809245693562944</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1959094395596883</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -2182,27 +1626,11 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>0.491956789050074</v>
-      </c>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="n">
-        <v>0.06809245693562944</v>
-      </c>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2224,26 +1652,18 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955758988946</v>
+        <v>1.46595575898901</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898405304177</v>
+        <v>0.3345898405304326</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537625</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.076926979514509</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.1032824348111826</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.3086837145068462</v>
-      </c>
+        <v>-5.550743282537622</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>0.0002</v>
       </c>
@@ -2255,27 +1675,11 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="n">
-        <v>1.076926979514509</v>
-      </c>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="n">
-        <v>0.1032824348111826</v>
-      </c>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2297,26 +1701,18 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116107087963434</v>
+        <v>1.116107088093233</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2748980962125339</v>
+        <v>0.2748980962445054</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.550726324289723</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.32388456056834</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.1370133802567433</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.4984151659995971</v>
-      </c>
+        <v>-5.550726324289684</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>0.003</v>
       </c>
@@ -2328,27 +1724,11 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="n">
-        <v>1.32388456056834</v>
-      </c>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="n">
-        <v>0.1370133802567433</v>
-      </c>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2378,18 +1758,10 @@
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H26" t="n">
-        <v>4.563412132168388</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.3339347562573891</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.4692139965789502</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -2399,27 +1771,11 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="n">
-        <v>4.563412132168388</v>
-      </c>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="n">
-        <v>0.3339347562573891</v>
-      </c>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2441,26 +1797,18 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955789293903</v>
+        <v>0.1013955788142336</v>
       </c>
       <c r="F27" t="n">
-        <v>0.240678583681044</v>
+        <v>0.2406785834077012</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.102247504860163</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.2427007657977054</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-0.332925</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.008402002728009</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -2468,45 +1816,17 @@
           <t>media:reset;c_sources:EX_sucr_e;media:reset;c_sources:EX_sucr_e;EX_sucr_e:(-0.332925,1000);EX_k_e:(-0.1,1000);EX_nh4_e:(-0.09,1000);EX_ca2_e:(-0.002844,1000);EX_mg2_e:(-0.004689,1000);EX_pi_e:(-0.01,1000);EX_no3_e:(-0.003217,1000);EX_cl_e:(-0.00643,1000);EX_so4_e:(-0.002,1000);EX_h_e:(-1000,1000);EX_h2o_e:(-1000,1000);EX_btn_c:(-0.01,1000);EX_o2_e:(-26.25403530509562,1000);EX_co2_e:(0,1000);EX_thm_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_4abz_e:(-1000,1000);EX_cu2_e:(-1000,1000);EX_fe2_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_mn2_e:(-1000,1000);EX_na1_e:(-1000,1000);EX_ni2_e:(-1000,1000);EX_zn2_e:(-1000,1000);EX_cobalt2_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_asp__L_e:(-0.00046,1000);EX_thr__L_e:(-0.000276,1000);EX_ser__L_e:(-0.000334,1000);EX_glu__L_e:(-0.001013,1000);EX_gly_e:(-0.000747,1000);EX_tyr__L_e:(-0.000094,1000);EX_lys__L_e:(-0.000216,1000);EX_arg__L_e:(-0.000236,1000);EX_trp__L_e:(-0.000023,1000);EX_chol_e:(-0.090319,1000);EX_ala__L_e:(-0.001179,1000);EX_val__L_e:(-0.000463,1000);EX_met__L_e:(-0.000132,1000);EX_ile__L_e:(-0.000253,1000);EX_leu__L_e:(-0.000709,1000);EX_phe__L_e:(-0.000229,1000);EX_his__L_e:(-0.000205,1000);EX_pro__L_e:(-0.000761,1000);BIOMASS_AERO_SC_hvd:(0.0133333333333333,1000)</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Fed-batch; 2L; 40 g/L after 24 h; pH 5.0; sucrose as substrate</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4607723/</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.001125130595515551</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1000</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="n">
-        <v>-0.332925</v>
-      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="n">
-        <v>0.102247504860163</v>
-      </c>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="n">
-        <v>0.2427007657977054</v>
-      </c>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2536,18 +1856,10 @@
       <c r="G28" t="n">
         <v>-5.55073108000964</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.989826998793612</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.130843991866295</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.5042244029257084</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>0.001</v>
       </c>
@@ -2559,27 +1871,11 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="n">
-        <v>-13.21</v>
-      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="n">
-        <v>2.989826998793612</v>
-      </c>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="n">
-        <v>0.130843991866295</v>
-      </c>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2601,26 +1897,18 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.130842325883608</v>
+        <v>0.1308423337395128</v>
       </c>
       <c r="F29" t="n">
-        <v>0.271981074844577</v>
+        <v>0.2719810911745942</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.059079127950008</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.1228073913560453</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-2.201133727157571</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.4515291787350398</v>
-      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>0.14</v>
       </c>
@@ -2630,41 +1918,17 @@
           <t>c_sources:EX_glc__D_e;BIOMASS_AERO_SC_hvd:(0.009615384615,0.14);EX_glc__D_e:(-2.20113372715757,1000);EX_nh4_e:(-0.181824845165991,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Strain CBS 14; minimal media; N limitation; max growth of 0.14/h; sugar went from 40.8 ± 0.3 to 3.19 ± 0.81 g/l (cultivated in 0.5 l)</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/article/10.1186/s13068-019-1478-8</t>
-        </is>
-      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>UNDF</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="n">
-        <v>-2.201133727157571</v>
-      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="n">
-        <v>0.059079127950008</v>
-      </c>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="n">
-        <v>0.1228073913560453</v>
-      </c>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2705,22 +1969,10 @@
           <t>c_sources:EX_xyl__D_e,EX_glc__D_e;EX_xyl__D_e:(-0.0266525306904169,-0.0266525306904169);EX_glc__D_e:(-0.0518243652313661,-0.0518243652313661);BIOMASS_AERO_SC_hvd:(0,0.0138888888888889);BiomassKim_e:(0,0);EX_btn_c:(0,0.02);ATPM_c:(0,1000);EX_4abz_e:(-1000,1000);EX_fe3_e:(-1000,1000);EX_fol_e:(-1000,1000);EX_inost_e:(-1000,1000);EX_nac_e:(-1000,1000);EX_pnto__R_e:(-1000,1000);EX_pydxn_e:(-1000,1000);EX_ribflv_e:(-1000,1000);EX_thm_e:(-1000,1000);EX_o2_e:(-26.25403530509562,1000)</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Strain IFO0880 with genetic modifications made to allow TAL production; grown using glucose. UB is theoretical maximum yield, while LB is observed yield at 95 h. Use biomass from RT_IFO0880 model (Kim et al. (2020)), to provide data based on similar conditions.</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>https://analyticalsciencejournals.onlinelibrary.wiley.com/doi/full/10.1002/bit.28159</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.01113301928416149</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.01278064790097615</v>
-      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -2728,10 +1980,6 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
+++ b/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,30 +527,50 @@
       <c r="S1" s="1" t="inlineStr"/>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>yield on minimal media at 1.0% exp. growth</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>FBA: yield on minimal media at 1.0% exp. growth</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>vCarbonSources</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: vCarbonSources</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>carbonSlack</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>RBA: carbonSlack</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>vprod</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>RBA: vprod</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>vCarbonSources</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>RBA: vCarbonSources</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>RBA: yield</t>
         </is>
@@ -576,18 +596,26 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382216105634</v>
+        <v>17.81382212023962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516943750848</v>
+        <v>0.5695516930700739</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>13.12601547771084</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4196709885241429</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7368444227809702</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -597,11 +625,27 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>13.12601547771084</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>0.4196709885241429</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -623,18 +667,26 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555301936198459</v>
+        <v>2.555301938109797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195097354233</v>
+        <v>0.3122195099690078</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203629657</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>-5.549610203628807</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.193963627530744</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3179407003370885</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.018324256445885</v>
+      </c>
       <c r="L3" t="n">
         <v>0.08</v>
       </c>
@@ -646,11 +698,27 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>6.193963627530744</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>0.3179407003370885</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -672,18 +740,26 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.379942361103544</v>
+        <v>7.37994235935546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6654236103138855</v>
+        <v>0.6654236101561146</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.545419566892341</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>-5.54541956689361</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12.92695393946665</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4892975380909073</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7353173687000879</v>
+      </c>
       <c r="L4" t="n">
         <v>0.13</v>
       </c>
@@ -695,11 +771,27 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>12.92695393946665</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>0.4892975380909073</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -729,10 +821,18 @@
       <c r="G5" t="n">
         <v>-5.544759808667549</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>21.01450790725979</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7954191707778575</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.063462698051072</v>
+      </c>
       <c r="L5" t="n">
         <v>0.14</v>
       </c>
@@ -744,11 +844,27 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>21.01450790725979</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>0.7954191707778575</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -770,18 +886,26 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.379942361103544</v>
+        <v>7.37994235935546</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654236103138855</v>
+        <v>0.6654236101561146</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.545419566892341</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>-5.54541956689361</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.92695393946665</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4892975380909073</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7353173687000879</v>
+      </c>
       <c r="L6" t="n">
         <v>0.13</v>
       </c>
@@ -793,11 +917,27 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>12.92695393946665</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.4892975380909073</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -827,10 +967,18 @@
       <c r="G7" t="n">
         <v>-5.544759808667549</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>21.01450790725979</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7954191707778575</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.063462698051072</v>
+      </c>
       <c r="L7" t="n">
         <v>0.14</v>
       </c>
@@ -842,11 +990,27 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>21.01450790725979</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0.7954191707778575</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -868,18 +1032,26 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3.354728528907292</v>
+        <v>3.354728528907144</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4600748684385398</v>
+        <v>0.4600748684385195</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.549441423005486</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>-5.549441423005487</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.485700917255147</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3736581852649452</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.812168216301686</v>
+      </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
       </c>
@@ -891,11 +1063,27 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>6.485700917255147</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>0.3736581852649452</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -917,18 +1105,26 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697658781199</v>
+        <v>2.844697655376507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995812806286</v>
+        <v>0.2800995809453898</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>2.014477159828011</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1983529628273286</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.7081515872242625</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -938,11 +1134,27 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>2.014477159828011</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>0.1983529628273286</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -964,18 +1176,26 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.008732116108107</v>
+        <v>5.00873127986906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4516357717891071</v>
+        <v>0.4516356963441319</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686668594033</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>-5.547686669104634</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.60426640887085</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4772953560389984</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.056814950418168</v>
+      </c>
       <c r="L10" t="n">
         <v>0.11</v>
       </c>
@@ -987,11 +1207,27 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>12.60426640887085</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>0.4772953560389984</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1021,10 +1257,18 @@
       <c r="G11" t="n">
         <v>-5.549820853802994</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>10.94051731260713</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3407389023929453</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.104401268856679</v>
+      </c>
       <c r="L11" t="n">
         <v>0.04</v>
       </c>
@@ -1036,11 +1280,27 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>10.94051731260713</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>0.3407389023929453</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1062,18 +1322,26 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880211</v>
+        <v>12.48937108880216</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293716</v>
+        <v>0.7667243171293748</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>12.24908359791311</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7519730329328614</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9807606412540267</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1083,11 +1351,27 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>12.24908359791311</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>0.7519730329328614</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1109,18 +1393,26 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611823932281909</v>
+        <v>2.611823931663255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262860821805087</v>
+        <v>0.4262860820794983</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274707247</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>-5.548570274707735</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.134323316983224</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4205350438929936</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9865089703176557</v>
+      </c>
       <c r="L13" t="n">
         <v>0.15</v>
       </c>
@@ -1132,11 +1424,27 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>6.134323316983224</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>0.4205350438929936</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1158,18 +1466,26 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421393</v>
+        <v>1.016994536421468</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207207009</v>
+        <v>0.2607839207207202</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402242267</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>-5.550180402242269</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.869559758125892</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2014214991231162</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7723693185011333</v>
+      </c>
       <c r="L14" t="n">
         <v>0.1</v>
       </c>
@@ -1181,11 +1497,27 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>1.869559758125892</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>0.2014214991231162</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1215,10 +1547,18 @@
       <c r="G15" t="n">
         <v>-5.550717505065815</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>1.906532265627526</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1942213133842071</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8113037843240435</v>
+      </c>
       <c r="L15" t="n">
         <v>0.005</v>
       </c>
@@ -1230,11 +1570,27 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>1.906532265627526</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>0.1942213133842071</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1256,13 +1612,13 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.686403745999173</v>
+        <v>4.68640372837228</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539442214044</v>
+        <v>0.3474539429141642</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184128062568</v>
+        <v>-5.549184128068436</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1284,6 +1640,10 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1305,18 +1665,26 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860211916536819</v>
+        <v>8.86021162578038</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334389869373</v>
+        <v>0.7940334092988445</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810150276244</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>-5.516810175504626</v>
+      </c>
+      <c r="H17" t="n">
+        <v>24.26361134430788</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9081034902384383</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.143659044573856</v>
+      </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
       </c>
@@ -1328,11 +1696,27 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>24.26361134430788</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>0.9081034902384383</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1354,18 +1738,26 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460770451227</v>
+        <v>3.836460769542628</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941614562719</v>
+        <v>0.5375941613289179</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244910347</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>-5.549254244910699</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.52666155241352</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3841905510798078</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7146479235006931</v>
+      </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
       </c>
@@ -1377,11 +1769,27 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>6.52666155241352</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>0.3841905510798078</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1403,18 +1811,26 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093036182524</v>
+        <v>3.969092787995581</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541183177003</v>
+        <v>0.4540540899257472</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>2.631670970138154</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.301056445680508</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6630409291759505</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1424,11 +1840,27 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>2.631670970138154</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>0.301056445680508</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1450,18 +1882,26 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996363049204229</v>
+        <v>0.09996364001457181</v>
       </c>
       <c r="F20" t="n">
-        <v>0.235525247597535</v>
+        <v>0.2355252700336561</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0.038837381822861</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.09150511966047002</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.332925</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3885150822559046</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1479,11 +1919,27 @@
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>-0.332925</v>
+      </c>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>0.038837381822861</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>0.09150511966047002</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1505,18 +1961,26 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673830273931</v>
+        <v>0.1141673721518167</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428832021681798</v>
+        <v>0.2428831790311442</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>0.044218735601577</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.09407229818136574</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.332925</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3873149987439152</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -1530,11 +1994,27 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>-0.332925</v>
+      </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>0.044218735601577</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>0.09407229818136574</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1556,18 +2036,26 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115573284</v>
+        <v>4.826633115573237</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4979383117364487</v>
+        <v>0.497938311736443</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771095</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>-5.547262026771105</v>
+      </c>
+      <c r="H22" t="n">
+        <v>12.17325698144325</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5273681619872579</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.059103406099011</v>
+      </c>
       <c r="L22" t="n">
         <v>0.13</v>
       </c>
@@ -1579,11 +2067,27 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>12.17325698144325</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="n">
+        <v>0.5273681619872579</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1605,18 +2109,26 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143874209235</v>
+        <v>2.511143874209327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710873792977</v>
+        <v>0.3475710873793104</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1.664398603946581</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2303718391239006</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.662804955558607</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1626,11 +2138,27 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>1.664398603946581</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="n">
+        <v>0.2303718391239006</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1652,18 +2180,26 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.46595575898901</v>
+        <v>1.465955759336204</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898405304326</v>
+        <v>0.3345898406096754</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537622</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>-5.550743282537632</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.631670970138149</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2523898004118237</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.7543259530891008</v>
+      </c>
       <c r="L24" t="n">
         <v>0.0002</v>
       </c>
@@ -1675,11 +2211,27 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="n">
+        <v>2.631670970138149</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>0.2523898004118237</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1709,10 +2261,18 @@
       <c r="G25" t="n">
         <v>-5.550726324289684</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1.995510818945774</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2065222986853837</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.7512685664497816</v>
+      </c>
       <c r="L25" t="n">
         <v>0.003</v>
       </c>
@@ -1724,11 +2284,27 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>1.995510818945774</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="n">
+        <v>0.2065222986853837</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1758,10 +2334,18 @@
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>6.528200525573759</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4777111924517257</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.6712352446715717</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1771,11 +2355,27 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>6.528200525573759</v>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>0.4777111924517257</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1797,18 +2397,26 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955788142336</v>
+        <v>0.1013955884731691</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406785834077012</v>
+        <v>0.2406786063347258</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.039414540785268</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.09355670092128042</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.332925</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3887204697835321</v>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -1822,11 +2430,27 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>-0.332925</v>
+      </c>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>0.039414540785268</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="n">
+        <v>0.09355670092128042</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1856,10 +2480,18 @@
       <c r="G28" t="n">
         <v>-5.55073108000964</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>6.147199582163946</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2690202919612721</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.036704812764233</v>
+      </c>
       <c r="L28" t="n">
         <v>0.001</v>
       </c>
@@ -1871,11 +2503,27 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>-13.21</v>
+      </c>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="n">
+        <v>6.147199582163946</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="n">
+        <v>0.2690202919612721</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1897,18 +2545,26 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423337395128</v>
+        <v>0.1308423264807952</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810911745942</v>
+        <v>0.271981076085946</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0.127875061435914</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2658130419211189</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-2.201133727157571</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9773218260123436</v>
+      </c>
       <c r="L29" t="n">
         <v>0.14</v>
       </c>
@@ -1924,11 +2580,27 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>UNDF</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="n">
+        <v>-2.201133727157571</v>
+      </c>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="n">
+        <v>0.127875061435914</v>
+      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>0.2658130419211189</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1980,6 +2652,10 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
+++ b/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
@@ -596,25 +596,25 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382212023962</v>
+        <v>17.81382211868619</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516930700739</v>
+        <v>0.5695516930204071</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
       <c r="H2" t="n">
-        <v>13.12601547771084</v>
+        <v>13.11830241409581</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4196709885241429</v>
+        <v>0.4194243829158097</v>
       </c>
       <c r="J2" t="n">
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7368444227809702</v>
+        <v>0.7364114408852819</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -640,11 +640,11 @@
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>13.12601547771084</v>
+        <v>13.11830241409581</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>0.4196709885241429</v>
+        <v>0.4194243829158097</v>
       </c>
     </row>
     <row r="3">
@@ -667,25 +667,25 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555301938109797</v>
+        <v>2.555301936198372</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195099690078</v>
+        <v>0.3122195097354127</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203628807</v>
+        <v>-5.549610203629656</v>
       </c>
       <c r="H3" t="n">
-        <v>6.193963627530744</v>
+        <v>6.043377625746376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3179407003370885</v>
+        <v>0.310211010311871</v>
       </c>
       <c r="J3" t="n">
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>1.018324256445885</v>
+        <v>0.9935670278092368</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>6.193963627530744</v>
+        <v>6.043377625746376</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>0.3179407003370885</v>
+        <v>0.310211010311871</v>
       </c>
     </row>
     <row r="4">
@@ -740,25 +740,25 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.37994235935546</v>
+        <v>7.379942361103544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6654236101561146</v>
+        <v>0.6654236103138855</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.54541956689361</v>
+        <v>-5.545419566892341</v>
       </c>
       <c r="H4" t="n">
-        <v>12.92695393946665</v>
+        <v>9.432028570805167</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4892975380909073</v>
+        <v>0.3570112789531978</v>
       </c>
       <c r="J4" t="n">
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7353173687000879</v>
+        <v>0.5365173002875459</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -786,11 +786,11 @@
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>12.92695393946665</v>
+        <v>9.432028570805167</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>0.4892975380909073</v>
+        <v>0.3570112789531978</v>
       </c>
     </row>
     <row r="5">
@@ -822,16 +822,16 @@
         <v>-5.544759808667549</v>
       </c>
       <c r="H5" t="n">
-        <v>21.01450790725979</v>
+        <v>14.61087781511336</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7954191707778575</v>
+        <v>0.5530356631391375</v>
       </c>
       <c r="J5" t="n">
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>1.063462698051072</v>
+        <v>0.7393998284769312</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -859,11 +859,11 @@
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>21.01450790725979</v>
+        <v>14.61087781511336</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>0.7954191707778575</v>
+        <v>0.5530356631391375</v>
       </c>
     </row>
     <row r="6">
@@ -886,25 +886,25 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.37994235935546</v>
+        <v>7.379942361103544</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654236101561146</v>
+        <v>0.6654236103138855</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.54541956689361</v>
+        <v>-5.545419566892341</v>
       </c>
       <c r="H6" t="n">
-        <v>12.92695393946665</v>
+        <v>9.432028570805167</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4892975380909073</v>
+        <v>0.3570112789531978</v>
       </c>
       <c r="J6" t="n">
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7353173687000879</v>
+        <v>0.5365173002875459</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -932,11 +932,11 @@
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>12.92695393946665</v>
+        <v>9.432028570805167</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.4892975380909073</v>
+        <v>0.3570112789531978</v>
       </c>
     </row>
     <row r="7">
@@ -968,16 +968,16 @@
         <v>-5.544759808667549</v>
       </c>
       <c r="H7" t="n">
-        <v>21.01450790725979</v>
+        <v>14.61087781511336</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7954191707778575</v>
+        <v>0.5530356631391375</v>
       </c>
       <c r="J7" t="n">
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>1.063462698051072</v>
+        <v>0.7393998284769312</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1005,11 +1005,11 @@
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>21.01450790725979</v>
+        <v>14.61087781511336</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.7954191707778575</v>
+        <v>0.5530356631391375</v>
       </c>
     </row>
     <row r="8">
@@ -1032,25 +1032,25 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3.354728528907144</v>
+        <v>3.35472852890728</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4600748684385195</v>
+        <v>0.4600748684385376</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.549441423005487</v>
+        <v>-5.549441423005494</v>
       </c>
       <c r="H8" t="n">
-        <v>6.485700917255147</v>
+        <v>5.383403028843428</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3736581852649452</v>
+        <v>0.3101519222009956</v>
       </c>
       <c r="J8" t="n">
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.812168216301686</v>
+        <v>0.67413358885181</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1078,11 +1078,11 @@
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>6.485700917255147</v>
+        <v>5.383403028843428</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>0.3736581852649452</v>
+        <v>0.3101519222009956</v>
       </c>
     </row>
     <row r="9">
@@ -1114,16 +1114,16 @@
         <v>-13.21</v>
       </c>
       <c r="H9" t="n">
-        <v>2.014477159828011</v>
+        <v>1.41250860871164</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1983529628273286</v>
+        <v>0.1390808856730755</v>
       </c>
       <c r="J9" t="n">
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7081515872242625</v>
+        <v>0.4965408559471988</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1149,11 +1149,11 @@
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>2.014477159828011</v>
+        <v>1.41250860871164</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>0.1983529628273286</v>
+        <v>0.1390808856730755</v>
       </c>
     </row>
     <row r="10">
@@ -1176,25 +1176,25 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.00873127986906</v>
+        <v>5.008732131157894</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4516356963441319</v>
+        <v>0.451635773146889</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686669104634</v>
+        <v>-5.547686668584852</v>
       </c>
       <c r="H10" t="n">
-        <v>12.60426640887085</v>
+        <v>12.58150013552137</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4772953560389984</v>
+        <v>0.4764332482263315</v>
       </c>
       <c r="J10" t="n">
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>1.056814950418168</v>
+        <v>1.054905914353639</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1222,11 +1222,11 @@
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>12.60426640887085</v>
+        <v>12.58150013552137</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>0.4772953560389984</v>
+        <v>0.4764332482263315</v>
       </c>
     </row>
     <row r="11">
@@ -1258,16 +1258,16 @@
         <v>-5.549820853802994</v>
       </c>
       <c r="H11" t="n">
-        <v>10.94051731260713</v>
+        <v>9.577723638304636</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3407389023929453</v>
+        <v>0.2982951305399648</v>
       </c>
       <c r="J11" t="n">
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>1.104401268856679</v>
+        <v>0.9668327224996268</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1295,11 +1295,11 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>10.94051731260713</v>
+        <v>9.577723638304636</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>0.3407389023929453</v>
+        <v>0.2982951305399648</v>
       </c>
     </row>
     <row r="12">
@@ -1331,16 +1331,16 @@
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>12.24908359791311</v>
+        <v>8.326290885559594</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7519730329328614</v>
+        <v>0.5111522147960692</v>
       </c>
       <c r="J12" t="n">
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9807606412540267</v>
+        <v>0.6666701490697847</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1366,11 +1366,11 @@
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>12.24908359791311</v>
+        <v>8.326290885559594</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>0.7519730329328614</v>
+        <v>0.5111522147960692</v>
       </c>
     </row>
     <row r="13">
@@ -1393,25 +1393,25 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611823931663255</v>
+        <v>2.611823932281909</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262860820794983</v>
+        <v>0.4262860821805087</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274707735</v>
+        <v>-5.548570274707247</v>
       </c>
       <c r="H13" t="n">
-        <v>6.134323316983224</v>
+        <v>5.315702138168096</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4205350438929936</v>
+        <v>0.3644149348645611</v>
       </c>
       <c r="J13" t="n">
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9865089703176557</v>
+        <v>0.8548600343706539</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>6.134323316983224</v>
+        <v>5.315702138168096</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>0.4205350438929936</v>
+        <v>0.3644149348645611</v>
       </c>
     </row>
     <row r="14">
@@ -1466,25 +1466,25 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421468</v>
+        <v>1.016994536421387</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207207202</v>
+        <v>0.2607839207207011</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402242269</v>
+        <v>-5.550180402242233</v>
       </c>
       <c r="H14" t="n">
-        <v>1.869559758125892</v>
+        <v>1.322280786773353</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2014214991231162</v>
+        <v>0.1424590881227386</v>
       </c>
       <c r="J14" t="n">
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7723693185011333</v>
+        <v>0.5462725145363235</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1512,11 +1512,11 @@
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>1.869559758125892</v>
+        <v>1.322280786773353</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="n">
-        <v>0.2014214991231162</v>
+        <v>0.1424590881227386</v>
       </c>
     </row>
     <row r="15">
@@ -1539,25 +1539,25 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9874314723701774</v>
+        <v>0.9874314721362913</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2393940680876117</v>
+        <v>0.2393940680309077</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.550717505065815</v>
+        <v>-5.550717505065825</v>
       </c>
       <c r="H15" t="n">
-        <v>1.906532265627526</v>
+        <v>1.344943131600855</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1942213133842071</v>
+        <v>0.1370113824748769</v>
       </c>
       <c r="J15" t="n">
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8113037843240435</v>
+        <v>0.57232572052365</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1585,11 +1585,11 @@
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>1.906532265627526</v>
+        <v>1.344943131600855</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>0.1942213133842071</v>
+        <v>0.1370113824748769</v>
       </c>
     </row>
     <row r="16">
@@ -1612,13 +1612,13 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.68640372837228</v>
+        <v>4.686403727429695</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539429141642</v>
+        <v>0.3474539428442602</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184128068436</v>
+        <v>-5.549184128068754</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1665,25 +1665,25 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.86021162578038</v>
+        <v>8.860211568548337</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334092988445</v>
+        <v>0.7940334041382806</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810175504626</v>
+        <v>-5.516810175723826</v>
       </c>
       <c r="H17" t="n">
-        <v>24.26361134430788</v>
+        <v>24.17540233686866</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9081034902384383</v>
+        <v>0.9048021305855269</v>
       </c>
       <c r="J17" t="n">
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>1.143659044573856</v>
+        <v>1.139501343230588</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1711,11 +1711,11 @@
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>24.26361134430788</v>
+        <v>24.17540233686866</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>0.9081034902384383</v>
+        <v>0.9048021305855269</v>
       </c>
     </row>
     <row r="18">
@@ -1738,25 +1738,25 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460769542628</v>
+        <v>3.836460770451315</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941613289179</v>
+        <v>0.5375941614562846</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244910699</v>
+        <v>-5.549254244910345</v>
       </c>
       <c r="H18" t="n">
-        <v>6.52666155241352</v>
+        <v>6.505000969188813</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3841905510798078</v>
+        <v>0.3829155054322005</v>
       </c>
       <c r="J18" t="n">
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7146479235006931</v>
+        <v>0.7122761608774242</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1784,11 +1784,11 @@
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>6.52666155241352</v>
+        <v>6.505000969188813</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>0.3841905510798078</v>
+        <v>0.3829155054322005</v>
       </c>
     </row>
     <row r="19">
@@ -1811,25 +1811,25 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969092787995581</v>
+        <v>3.969093036182591</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540540899257472</v>
+        <v>0.4540541183177079</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>2.631670970138154</v>
+        <v>1.929450655511236</v>
       </c>
       <c r="I19" t="n">
-        <v>0.301056445680508</v>
+        <v>0.2207242330273701</v>
       </c>
       <c r="J19" t="n">
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6630409291759505</v>
+        <v>0.4861187777465027</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1855,11 +1855,11 @@
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>2.631670970138154</v>
+        <v>1.929450655511236</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
-        <v>0.301056445680508</v>
+        <v>0.2207242330273701</v>
       </c>
     </row>
     <row r="20">
@@ -1891,16 +1891,16 @@
         <v>-0.332925</v>
       </c>
       <c r="H20" t="n">
-        <v>0.038837381822861</v>
+        <v>0.038629158312921</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09150511966047002</v>
+        <v>0.09101452229527979</v>
       </c>
       <c r="J20" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3885150822559046</v>
+        <v>0.3864320897807442</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>0.038837381822861</v>
+        <v>0.038629158312921</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="n">
-        <v>0.09150511966047002</v>
+        <v>0.09101452229527979</v>
       </c>
     </row>
     <row r="21">
@@ -1961,25 +1961,25 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673721518167</v>
+        <v>0.1141673830273931</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428831790311442</v>
+        <v>0.2428832021681798</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
       </c>
       <c r="H21" t="n">
-        <v>0.044218735601577</v>
+        <v>0.043957568027542</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09407229818136574</v>
+        <v>0.0935166822514736</v>
       </c>
       <c r="J21" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3873149987439152</v>
+        <v>0.385027377013581</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>0.044218735601577</v>
+        <v>0.043957568027542</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="n">
-        <v>0.09407229818136574</v>
+        <v>0.0935166822514736</v>
       </c>
     </row>
     <row r="22">
@@ -2036,25 +2036,25 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115573237</v>
+        <v>4.826633115575961</v>
       </c>
       <c r="F22" t="n">
-        <v>0.497938311736443</v>
+        <v>0.4979383117367246</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771105</v>
+        <v>-5.547262026771099</v>
       </c>
       <c r="H22" t="n">
-        <v>12.17325698144325</v>
+        <v>8.2585525284615</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5273681619872579</v>
+        <v>0.3577758749568107</v>
       </c>
       <c r="J22" t="n">
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>1.059103406099011</v>
+        <v>0.7185144555536388</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>12.17325698144325</v>
+        <v>8.2585525284615</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="n">
-        <v>0.5273681619872579</v>
+        <v>0.3577758749568107</v>
       </c>
     </row>
     <row r="23">
@@ -2118,16 +2118,16 @@
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>1.664398603946581</v>
+        <v>1.166533503578864</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2303718391239006</v>
+        <v>0.1614616041985909</v>
       </c>
       <c r="J23" t="n">
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.662804955558607</v>
+        <v>0.4645426793580936</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>1.664398603946581</v>
+        <v>1.166533503578864</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="n">
-        <v>0.2303718391239006</v>
+        <v>0.1614616041985909</v>
       </c>
     </row>
     <row r="24">
@@ -2189,16 +2189,16 @@
         <v>-5.550743282537632</v>
       </c>
       <c r="H24" t="n">
-        <v>2.631670970138149</v>
+        <v>1.929450655511219</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2523898004118237</v>
+        <v>0.1850435222999688</v>
       </c>
       <c r="J24" t="n">
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7543259530891008</v>
+        <v>0.5530458485015274</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2226,11 +2226,11 @@
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>2.631670970138149</v>
+        <v>1.929450655511219</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="n">
-        <v>0.2523898004118237</v>
+        <v>0.1850435222999688</v>
       </c>
     </row>
     <row r="25">
@@ -2262,16 +2262,16 @@
         <v>-5.550726324289684</v>
       </c>
       <c r="H25" t="n">
-        <v>1.995510818945774</v>
+        <v>1.397262464635778</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2065222986853837</v>
+        <v>0.1446075126848144</v>
       </c>
       <c r="J25" t="n">
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7512685664497816</v>
+        <v>0.5260404297459911</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2299,11 +2299,11 @@
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>1.995510818945774</v>
+        <v>1.397262464635778</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="n">
-        <v>0.2065222986853837</v>
+        <v>0.1446075126848144</v>
       </c>
     </row>
     <row r="26">
@@ -2335,16 +2335,16 @@
         <v>-13.21</v>
       </c>
       <c r="H26" t="n">
-        <v>6.528200525573759</v>
+        <v>6.508474472797408</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4777111924517257</v>
+        <v>0.4762677079635822</v>
       </c>
       <c r="J26" t="n">
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6712352446715717</v>
+        <v>0.6692069948024282</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2370,11 +2370,11 @@
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>6.528200525573759</v>
+        <v>6.508474472797408</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="n">
-        <v>0.4777111924517257</v>
+        <v>0.4762677079635822</v>
       </c>
     </row>
     <row r="27">
@@ -2406,16 +2406,16 @@
         <v>-0.332925</v>
       </c>
       <c r="H27" t="n">
-        <v>0.039414540785268</v>
+        <v>0.039206920399056</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09355670092128042</v>
+        <v>0.09306388080994585</v>
       </c>
       <c r="J27" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3887204697835321</v>
+        <v>0.3866728423735197</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2445,11 +2445,11 @@
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
-        <v>0.039414540785268</v>
+        <v>0.039206920399056</v>
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="n">
-        <v>0.09355670092128042</v>
+        <v>0.09306388080994585</v>
       </c>
     </row>
     <row r="28">
@@ -2472,25 +2472,25 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.491549780251542</v>
+        <v>2.49154977966139</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955561592948</v>
+        <v>0.2594955560978294</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.55073108000964</v>
+        <v>-5.550731080009659</v>
       </c>
       <c r="H28" t="n">
-        <v>6.147199582163946</v>
+        <v>5.400052509256071</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2690202919612721</v>
+        <v>0.2363228464000641</v>
       </c>
       <c r="J28" t="n">
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>1.036704812764233</v>
+        <v>0.9107009382117155</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
-        <v>6.147199582163946</v>
+        <v>5.400052509256071</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="n">
-        <v>0.2690202919612721</v>
+        <v>0.2363228464000641</v>
       </c>
     </row>
     <row r="29">
@@ -2545,25 +2545,25 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423264807952</v>
+        <v>0.1308423337395128</v>
       </c>
       <c r="F29" t="n">
-        <v>0.271981076085946</v>
+        <v>0.2719810911745942</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
       </c>
       <c r="H29" t="n">
-        <v>0.127875061435914</v>
+        <v>0.125284854980316</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2658130419211189</v>
+        <v>0.2604287969445385</v>
       </c>
       <c r="J29" t="n">
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9773218260123436</v>
+        <v>0.9575253772967626</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2595,11 +2595,11 @@
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>0.127875061435914</v>
+        <v>0.125284854980316</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="n">
-        <v>0.2658130419211189</v>
+        <v>0.2604287969445385</v>
       </c>
     </row>
     <row r="30">
@@ -2622,10 +2622,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612999394498</v>
+        <v>0.007105612030794042</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718414909479177</v>
+        <v>0.06718413993659564</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
+++ b/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
@@ -596,25 +596,25 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382211868619</v>
+        <v>17.81382212023962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516930204071</v>
+        <v>0.5695516930700739</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
       <c r="H2" t="n">
-        <v>13.11830241409581</v>
+        <v>13.11829730685091</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4194243829158097</v>
+        <v>0.4194242196246328</v>
       </c>
       <c r="J2" t="n">
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7364114408852819</v>
+        <v>0.7364111541198238</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -640,11 +640,11 @@
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>13.11830241409581</v>
+        <v>13.11829730685091</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>0.4194243829158097</v>
+        <v>0.4194242196246328</v>
       </c>
     </row>
     <row r="3">
@@ -667,25 +667,25 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555301936198372</v>
+        <v>2.555301936214222</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195097354127</v>
+        <v>0.3122195089297514</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203629656</v>
+        <v>-5.549610217984472</v>
       </c>
       <c r="H3" t="n">
-        <v>6.043377625746376</v>
+        <v>6.043377625746497</v>
       </c>
       <c r="I3" t="n">
-        <v>0.310211010311871</v>
+        <v>0.3102110103118773</v>
       </c>
       <c r="J3" t="n">
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9935670278092368</v>
+        <v>0.993567030373089</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>6.043377625746376</v>
+        <v>6.043377625746497</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>0.310211010311871</v>
+        <v>0.3102110103118773</v>
       </c>
     </row>
     <row r="4">
@@ -749,16 +749,16 @@
         <v>-5.545419566892341</v>
       </c>
       <c r="H4" t="n">
-        <v>9.432028570805167</v>
+        <v>9.432019770030667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3570112789531978</v>
+        <v>0.3570109458354876</v>
       </c>
       <c r="J4" t="n">
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5365173002875459</v>
+        <v>0.5365167996775509</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -786,11 +786,11 @@
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>9.432028570805167</v>
+        <v>9.432019770030667</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>0.3570112789531978</v>
+        <v>0.3570109458354876</v>
       </c>
     </row>
     <row r="5">
@@ -822,16 +822,16 @@
         <v>-5.544759808667549</v>
       </c>
       <c r="H5" t="n">
-        <v>14.61087781511336</v>
+        <v>14.61087781511374</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5530356631391375</v>
+        <v>0.5530356631391516</v>
       </c>
       <c r="J5" t="n">
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7393998284769312</v>
+        <v>0.7393998284769501</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -859,11 +859,11 @@
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>14.61087781511336</v>
+        <v>14.61087781511374</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>0.5530356631391375</v>
+        <v>0.5530356631391516</v>
       </c>
     </row>
     <row r="6">
@@ -895,16 +895,16 @@
         <v>-5.545419566892341</v>
       </c>
       <c r="H6" t="n">
-        <v>9.432028570805167</v>
+        <v>9.432019770030667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3570112789531978</v>
+        <v>0.3570109458354876</v>
       </c>
       <c r="J6" t="n">
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5365173002875459</v>
+        <v>0.5365167996775509</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -932,11 +932,11 @@
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>9.432028570805167</v>
+        <v>9.432019770030667</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.3570112789531978</v>
+        <v>0.3570109458354876</v>
       </c>
     </row>
     <row r="7">
@@ -968,16 +968,16 @@
         <v>-5.544759808667549</v>
       </c>
       <c r="H7" t="n">
-        <v>14.61087781511336</v>
+        <v>14.61087781511374</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5530356631391375</v>
+        <v>0.5530356631391516</v>
       </c>
       <c r="J7" t="n">
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7393998284769312</v>
+        <v>0.7393998284769501</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1005,11 +1005,11 @@
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>14.61087781511336</v>
+        <v>14.61087781511374</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.5530356631391375</v>
+        <v>0.5530356631391516</v>
       </c>
     </row>
     <row r="8">
@@ -1032,25 +1032,25 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3.35472852890728</v>
+        <v>3.354728528907292</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4600748684385376</v>
+        <v>0.4600748684385398</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.549441423005494</v>
+        <v>-5.549441423005486</v>
       </c>
       <c r="H8" t="n">
-        <v>5.383403028843428</v>
+        <v>5.383403028843423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3101519222009956</v>
+        <v>0.3101519222009954</v>
       </c>
       <c r="J8" t="n">
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.67413358885181</v>
+        <v>0.6741335888518062</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1078,11 +1078,11 @@
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>5.383403028843428</v>
+        <v>5.383403028843423</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>0.3101519222009956</v>
+        <v>0.3101519222009954</v>
       </c>
     </row>
     <row r="9">
@@ -1105,25 +1105,25 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697655376507</v>
+        <v>2.844697655376286</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995809453898</v>
+        <v>0.280099580945368</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
       <c r="H9" t="n">
-        <v>1.41250860871164</v>
+        <v>1.412508608711654</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1390808856730755</v>
+        <v>0.1390808856730769</v>
       </c>
       <c r="J9" t="n">
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4965408559471988</v>
+        <v>0.4965408559472423</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1149,11 +1149,11 @@
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>1.41250860871164</v>
+        <v>1.412508608711654</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>0.1390808856730755</v>
+        <v>0.1390808856730769</v>
       </c>
     </row>
     <row r="10">
@@ -1176,25 +1176,25 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.008732131157894</v>
+        <v>5.008732116108107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.451635773146889</v>
+        <v>0.4516357717891071</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686668584852</v>
+        <v>-5.547686668594033</v>
       </c>
       <c r="H10" t="n">
-        <v>12.58150013552137</v>
+        <v>12.58150013552147</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4764332482263315</v>
+        <v>0.4764332482263352</v>
       </c>
       <c r="J10" t="n">
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>1.054905914353639</v>
+        <v>1.054905917525079</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1222,11 +1222,11 @@
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>12.58150013552137</v>
+        <v>12.58150013552147</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>0.4764332482263315</v>
+        <v>0.4764332482263352</v>
       </c>
     </row>
     <row r="11">
@@ -1249,25 +1249,25 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856556537492</v>
+        <v>4.161856556537502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3085281699700435</v>
+        <v>0.3085281699700423</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.549820853802994</v>
+        <v>-5.549820853803029</v>
       </c>
       <c r="H11" t="n">
-        <v>9.577723638304636</v>
+        <v>9.577723638304525</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2982951305399648</v>
+        <v>0.2982951305399613</v>
       </c>
       <c r="J11" t="n">
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9668327224996268</v>
+        <v>0.966832722499619</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1295,11 +1295,11 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>9.577723638304636</v>
+        <v>9.577723638304525</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>0.2982951305399648</v>
+        <v>0.2982951305399613</v>
       </c>
     </row>
     <row r="12">
@@ -1331,16 +1331,16 @@
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>8.326290885559594</v>
+        <v>8.3262908855597</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5111522147960692</v>
+        <v>0.5111522147960758</v>
       </c>
       <c r="J12" t="n">
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6666701490697847</v>
+        <v>0.6666701490697933</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1366,11 +1366,11 @@
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>8.326290885559594</v>
+        <v>8.3262908855597</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>0.5111522147960692</v>
+        <v>0.5111522147960758</v>
       </c>
     </row>
     <row r="13">
@@ -1393,25 +1393,25 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611823932281909</v>
+        <v>2.611823947915461</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262860821805087</v>
+        <v>0.4262860847331228</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274707247</v>
+        <v>-5.548570274694224</v>
       </c>
       <c r="H13" t="n">
-        <v>5.315702138168096</v>
+        <v>5.315708870631258</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3644149348645611</v>
+        <v>0.3644153964047416</v>
       </c>
       <c r="J13" t="n">
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8548600343706539</v>
+        <v>0.854861111952281</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>5.315702138168096</v>
+        <v>5.315708870631258</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>0.3644149348645611</v>
+        <v>0.3644153964047416</v>
       </c>
     </row>
     <row r="14">
@@ -1466,25 +1466,25 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421387</v>
+        <v>1.016994536421393</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207207011</v>
+        <v>0.2607839207207009</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402242233</v>
+        <v>-5.550180402242267</v>
       </c>
       <c r="H14" t="n">
-        <v>1.322280786773353</v>
+        <v>1.322275094997493</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1424590881227386</v>
+        <v>0.1424584749056315</v>
       </c>
       <c r="J14" t="n">
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5462725145363235</v>
+        <v>0.5462701630987605</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1512,11 +1512,11 @@
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>1.322280786773353</v>
+        <v>1.322275094997493</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="n">
-        <v>0.1424590881227386</v>
+        <v>0.1424584749056315</v>
       </c>
     </row>
     <row r="15">
@@ -1539,25 +1539,25 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9874314721362913</v>
+        <v>0.9874314721362993</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2393940680309077</v>
+        <v>0.239394068030909</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.550717505065825</v>
+        <v>-5.550717505065838</v>
       </c>
       <c r="H15" t="n">
-        <v>1.344943131600855</v>
+        <v>1.344943131597913</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1370113824748769</v>
+        <v>0.1370113824745772</v>
       </c>
       <c r="J15" t="n">
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.57232572052365</v>
+        <v>0.5723257205223948</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1585,11 +1585,11 @@
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>1.344943131600855</v>
+        <v>1.344943131597913</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>0.1370113824748769</v>
+        <v>0.1370113824745772</v>
       </c>
     </row>
     <row r="16">
@@ -1612,13 +1612,13 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.686403727429695</v>
+        <v>4.686403728372541</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539428442602</v>
+        <v>0.3474539429141829</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184128068754</v>
+        <v>-5.549184128068448</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1665,25 +1665,25 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860211568548337</v>
+        <v>8.860211568548349</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334041382806</v>
+        <v>0.7940334041382812</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810175723826</v>
+        <v>-5.51681017572383</v>
       </c>
       <c r="H17" t="n">
-        <v>24.17540233686866</v>
+        <v>24.17540233688923</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9048021305855269</v>
+        <v>0.9048021305862969</v>
       </c>
       <c r="J17" t="n">
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>1.139501343230588</v>
+        <v>1.139501343231557</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1711,11 +1711,11 @@
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>24.17540233686866</v>
+        <v>24.17540233688923</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>0.9048021305855269</v>
+        <v>0.9048021305862969</v>
       </c>
     </row>
     <row r="18">
@@ -1738,25 +1738,25 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460770451315</v>
+        <v>3.836460769542236</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941614562846</v>
+        <v>0.537594161328863</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244910345</v>
+        <v>-5.5492542449107</v>
       </c>
       <c r="H18" t="n">
-        <v>6.505000969188813</v>
+        <v>6.50500096918884</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3829155054322005</v>
+        <v>0.3829155054322021</v>
       </c>
       <c r="J18" t="n">
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7122761608774242</v>
+        <v>0.7122761610462522</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1784,11 +1784,11 @@
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>6.505000969188813</v>
+        <v>6.50500096918884</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>0.3829155054322005</v>
+        <v>0.3829155054322021</v>
       </c>
     </row>
     <row r="19">
@@ -1811,25 +1811,25 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093036182591</v>
+        <v>3.969093036182524</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541183177079</v>
+        <v>0.4540541183177003</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>1.929450655511236</v>
+        <v>1.929450655511177</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2207242330273701</v>
+        <v>0.2207242330273633</v>
       </c>
       <c r="J19" t="n">
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4861187777465027</v>
+        <v>0.4861187777464959</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1855,11 +1855,11 @@
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>1.929450655511236</v>
+        <v>1.929450655511177</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
-        <v>0.2207242330273701</v>
+        <v>0.2207242330273633</v>
       </c>
     </row>
     <row r="20">
@@ -1891,16 +1891,16 @@
         <v>-0.332925</v>
       </c>
       <c r="H20" t="n">
-        <v>0.038629158312921</v>
+        <v>0.097946072896019</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09101452229527979</v>
+        <v>0.2307716612181017</v>
       </c>
       <c r="J20" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3864320897807442</v>
+        <v>0.9798169902750771</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>0.038629158312921</v>
+        <v>0.097946072896019</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="n">
-        <v>0.09101452229527979</v>
+        <v>0.2307716612181017</v>
       </c>
     </row>
     <row r="21">
@@ -1970,16 +1970,16 @@
         <v>-0.332925</v>
       </c>
       <c r="H21" t="n">
-        <v>0.043957568027542</v>
+        <v>0.111424668221153</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0935166822514736</v>
+        <v>0.2370482663300356</v>
       </c>
       <c r="J21" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>0.385027377013581</v>
+        <v>0.9759763714161513</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>0.043957568027542</v>
+        <v>0.111424668221153</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="n">
-        <v>0.0935166822514736</v>
+        <v>0.2370482663300356</v>
       </c>
     </row>
     <row r="22">
@@ -2036,25 +2036,25 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115575961</v>
+        <v>4.826633115573177</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4979383117367246</v>
+        <v>0.4979383117364357</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771099</v>
+        <v>-5.547262026771118</v>
       </c>
       <c r="H22" t="n">
-        <v>8.2585525284615</v>
+        <v>8.258552528461752</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3577758749568107</v>
+        <v>0.3577758749568217</v>
       </c>
       <c r="J22" t="n">
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7185144555536388</v>
+        <v>0.7185144555540776</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>8.2585525284615</v>
+        <v>8.258552528461752</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="n">
-        <v>0.3577758749568107</v>
+        <v>0.3577758749568217</v>
       </c>
     </row>
     <row r="23">
@@ -2118,16 +2118,16 @@
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>1.166533503578864</v>
+        <v>1.166534631901427</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1614616041985909</v>
+        <v>0.1614617603713631</v>
       </c>
       <c r="J23" t="n">
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4645426793580936</v>
+        <v>0.4645431286842252</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>1.166533503578864</v>
+        <v>1.166534631901427</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="n">
-        <v>0.1614616041985909</v>
+        <v>0.1614617603713631</v>
       </c>
     </row>
     <row r="24">
@@ -2180,25 +2180,25 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955759336204</v>
+        <v>1.465955758988981</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898406096754</v>
+        <v>0.3345898405304257</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537632</v>
+        <v>-5.550743282537625</v>
       </c>
       <c r="H24" t="n">
-        <v>1.929450655511219</v>
+        <v>1.929450655511192</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1850435222999688</v>
+        <v>0.1850435222999662</v>
       </c>
       <c r="J24" t="n">
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5530458485015274</v>
+        <v>0.5530458486325122</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2226,11 +2226,11 @@
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>1.929450655511219</v>
+        <v>1.929450655511192</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="n">
-        <v>0.1850435222999688</v>
+        <v>0.1850435222999662</v>
       </c>
     </row>
     <row r="25">
@@ -2262,16 +2262,16 @@
         <v>-5.550726324289684</v>
       </c>
       <c r="H25" t="n">
-        <v>1.397262464635778</v>
+        <v>1.397262464635824</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1446075126848144</v>
+        <v>0.1446075126848192</v>
       </c>
       <c r="J25" t="n">
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5260404297459911</v>
+        <v>0.5260404297460085</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2299,11 +2299,11 @@
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>1.397262464635778</v>
+        <v>1.397262464635824</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="n">
-        <v>0.1446075126848144</v>
+        <v>0.1446075126848192</v>
       </c>
     </row>
     <row r="26">
@@ -2326,25 +2326,25 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652187360838</v>
+        <v>9.725652187360732</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896739912171</v>
+        <v>0.7116896739912092</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
       <c r="H26" t="n">
-        <v>6.508474472797408</v>
+        <v>6.508474472797413</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4762677079635822</v>
+        <v>0.4762677079635825</v>
       </c>
       <c r="J26" t="n">
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6692069948024282</v>
+        <v>0.6692069948024361</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2370,11 +2370,11 @@
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>6.508474472797408</v>
+        <v>6.508474472797413</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="n">
-        <v>0.4762677079635822</v>
+        <v>0.4762677079635825</v>
       </c>
     </row>
     <row r="27">
@@ -2406,16 +2406,16 @@
         <v>-0.332925</v>
       </c>
       <c r="H27" t="n">
-        <v>0.039206920399056</v>
+        <v>0.099374624598613</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09306388080994585</v>
+        <v>0.2358815261450911</v>
       </c>
       <c r="J27" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3866728423735197</v>
+        <v>0.9800685226548006</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2445,11 +2445,11 @@
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
-        <v>0.039206920399056</v>
+        <v>0.099374624598613</v>
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="n">
-        <v>0.09306388080994585</v>
+        <v>0.2358815261450911</v>
       </c>
     </row>
     <row r="28">
@@ -2472,25 +2472,25 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.49154977966139</v>
+        <v>2.491549780251542</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955560978294</v>
+        <v>0.2594955561592948</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.550731080009659</v>
+        <v>-5.55073108000964</v>
       </c>
       <c r="H28" t="n">
-        <v>5.400052509256071</v>
+        <v>5.400062163986131</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2363228464000641</v>
+        <v>0.2363232689206387</v>
       </c>
       <c r="J28" t="n">
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9107009382117155</v>
+        <v>0.9107025662341921</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
-        <v>5.400052509256071</v>
+        <v>5.400062163986131</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="n">
-        <v>0.2363228464000641</v>
+        <v>0.2363232689206387</v>
       </c>
     </row>
     <row r="29">
@@ -2554,16 +2554,16 @@
         <v>-2.20113372715757</v>
       </c>
       <c r="H29" t="n">
-        <v>0.125284854980316</v>
+        <v>0.125284854949458</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2604287969445385</v>
+        <v>0.2604287968803942</v>
       </c>
       <c r="J29" t="n">
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9575253772967626</v>
+        <v>0.9575253770609217</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2595,11 +2595,11 @@
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>0.125284854980316</v>
+        <v>0.125284854949458</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="n">
-        <v>0.2604287969445385</v>
+        <v>0.2604287968803942</v>
       </c>
     </row>
     <row r="30">
@@ -2622,10 +2622,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612030794042</v>
+        <v>0.007105612999394498</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718413993659564</v>
+        <v>0.06718414909479177</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
+++ b/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
@@ -596,25 +596,25 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382212023962</v>
+        <v>17.81382211868636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516930700739</v>
+        <v>0.5695516930204122</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
       </c>
       <c r="H2" t="n">
-        <v>13.11829730685091</v>
+        <v>13.11830241409718</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4194242196246328</v>
+        <v>0.4194243829158536</v>
       </c>
       <c r="J2" t="n">
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7364111541198238</v>
+        <v>0.7364114408853523</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -640,11 +640,11 @@
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>13.11829730685091</v>
+        <v>13.11830241409718</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>0.4194242196246328</v>
+        <v>0.4194243829158536</v>
       </c>
     </row>
     <row r="3">
@@ -667,25 +667,25 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555301936214222</v>
+        <v>2.555301938109797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195089297514</v>
+        <v>0.3122195099690078</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610217984472</v>
+        <v>-5.549610203628807</v>
       </c>
       <c r="H3" t="n">
-        <v>6.043377625746497</v>
+        <v>6.043377625746459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3102110103118773</v>
+        <v>0.3102110103118753</v>
       </c>
       <c r="J3" t="n">
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.993567030373089</v>
+        <v>0.9935670270658874</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>6.043377625746497</v>
+        <v>6.043377625746459</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>0.3102110103118773</v>
+        <v>0.3102110103118753</v>
       </c>
     </row>
     <row r="4">
@@ -740,25 +740,25 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.379942361103544</v>
+        <v>7.379942361103503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6654236103138855</v>
+        <v>0.6654236103138812</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.545419566892341</v>
+        <v>-5.545419566892347</v>
       </c>
       <c r="H4" t="n">
-        <v>9.432019770030667</v>
+        <v>9.432019814940807</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3570109458354876</v>
+        <v>0.3570109475353793</v>
       </c>
       <c r="J4" t="n">
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5365167996775509</v>
+        <v>0.5365168022321551</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -786,11 +786,11 @@
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>9.432019770030667</v>
+        <v>9.432019814940807</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>0.3570109458354876</v>
+        <v>0.3570109475353793</v>
       </c>
     </row>
     <row r="5">
@@ -813,25 +813,25 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>8.294245459149213</v>
+        <v>8.294245457651105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7479521117530147</v>
+        <v>0.7479521116177738</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.544759808667549</v>
+        <v>-5.544759808668629</v>
       </c>
       <c r="H5" t="n">
-        <v>14.61087781511374</v>
+        <v>14.61087781511413</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5530356631391516</v>
+        <v>0.5530356631391665</v>
       </c>
       <c r="J5" t="n">
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7393998284769501</v>
+        <v>0.7393998286106646</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -859,11 +859,11 @@
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>14.61087781511374</v>
+        <v>14.61087781511413</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>0.5530356631391516</v>
+        <v>0.5530356631391665</v>
       </c>
     </row>
     <row r="6">
@@ -886,25 +886,25 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.379942361103544</v>
+        <v>7.379942361103503</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654236103138855</v>
+        <v>0.6654236103138812</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.545419566892341</v>
+        <v>-5.545419566892347</v>
       </c>
       <c r="H6" t="n">
-        <v>9.432019770030667</v>
+        <v>9.432019814940807</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3570109458354876</v>
+        <v>0.3570109475353793</v>
       </c>
       <c r="J6" t="n">
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5365167996775509</v>
+        <v>0.5365168022321551</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -932,11 +932,11 @@
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>9.432019770030667</v>
+        <v>9.432019814940807</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.3570109458354876</v>
+        <v>0.3570109475353793</v>
       </c>
     </row>
     <row r="7">
@@ -959,25 +959,25 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>8.294245459149213</v>
+        <v>8.294245457651105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7479521117530147</v>
+        <v>0.7479521116177738</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.544759808667549</v>
+        <v>-5.544759808668629</v>
       </c>
       <c r="H7" t="n">
-        <v>14.61087781511374</v>
+        <v>14.61087781511413</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5530356631391516</v>
+        <v>0.5530356631391665</v>
       </c>
       <c r="J7" t="n">
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7393998284769501</v>
+        <v>0.7393998286106646</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1005,11 +1005,11 @@
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>14.61087781511374</v>
+        <v>14.61087781511413</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.5530356631391516</v>
+        <v>0.5530356631391665</v>
       </c>
     </row>
     <row r="8">
@@ -1032,13 +1032,13 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3.354728528907292</v>
+        <v>3.354728548864318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4600748684385398</v>
+        <v>0.4600748711761332</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.549441423005486</v>
+        <v>-5.549441422997732</v>
       </c>
       <c r="H8" t="n">
         <v>5.383403028843423</v>
@@ -1050,7 +1050,7 @@
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6741335888518062</v>
+        <v>0.6741335848404946</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1105,25 +1105,25 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697655376286</v>
+        <v>2.844697655376507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.280099580945368</v>
+        <v>0.2800995809453898</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
       </c>
       <c r="H9" t="n">
-        <v>1.412508608711654</v>
+        <v>1.412508608711675</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1390808856730769</v>
+        <v>0.139080885673079</v>
       </c>
       <c r="J9" t="n">
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4965408559472423</v>
+        <v>0.496540855947211</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1149,11 +1149,11 @@
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>1.412508608711654</v>
+        <v>1.412508608711675</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>0.1390808856730769</v>
+        <v>0.139080885673079</v>
       </c>
     </row>
     <row r="10">
@@ -1185,16 +1185,16 @@
         <v>-5.547686668594033</v>
       </c>
       <c r="H10" t="n">
-        <v>12.58150013552147</v>
+        <v>12.5815001355205</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4764332482263352</v>
+        <v>0.4764332482262986</v>
       </c>
       <c r="J10" t="n">
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>1.054905917525079</v>
+        <v>1.054905917524998</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1222,11 +1222,11 @@
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>12.58150013552147</v>
+        <v>12.5815001355205</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>0.4764332482263352</v>
+        <v>0.4764332482262986</v>
       </c>
     </row>
     <row r="11">
@@ -1249,25 +1249,25 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856556537502</v>
+        <v>4.161856555785772</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3085281699700423</v>
+        <v>0.3085281699143055</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.549820853803029</v>
+        <v>-5.549820853803196</v>
       </c>
       <c r="H11" t="n">
-        <v>9.577723638304525</v>
+        <v>9.577711144560674</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2982951305399613</v>
+        <v>0.2982947414263165</v>
       </c>
       <c r="J11" t="n">
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.966832722499619</v>
+        <v>0.966831461481033</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1295,11 +1295,11 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>9.577723638304525</v>
+        <v>9.577711144560674</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>0.2982951305399613</v>
+        <v>0.2982947414263165</v>
       </c>
     </row>
     <row r="12">
@@ -1331,16 +1331,16 @@
         <v>-13.21</v>
       </c>
       <c r="H12" t="n">
-        <v>8.3262908855597</v>
+        <v>8.326290885559455</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5111522147960758</v>
+        <v>0.5111522147960607</v>
       </c>
       <c r="J12" t="n">
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6666701490697933</v>
+        <v>0.6666701490697735</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1366,11 +1366,11 @@
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>8.3262908855597</v>
+        <v>8.326290885559455</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>0.5111522147960758</v>
+        <v>0.5111522147960607</v>
       </c>
     </row>
     <row r="13">
@@ -1393,25 +1393,25 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611823947915461</v>
+        <v>2.611823932281909</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262860847331228</v>
+        <v>0.4262860821805087</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274694224</v>
+        <v>-5.548570274707247</v>
       </c>
       <c r="H13" t="n">
-        <v>5.315708870631258</v>
+        <v>5.315708870631331</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3644153964047416</v>
+        <v>0.3644153964047467</v>
       </c>
       <c r="J13" t="n">
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.854861111952281</v>
+        <v>0.8548611170712274</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>5.315708870631258</v>
+        <v>5.315708870631331</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>0.3644153964047416</v>
+        <v>0.3644153964047467</v>
       </c>
     </row>
     <row r="14">
@@ -1466,25 +1466,25 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421393</v>
+        <v>1.016994536421335</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207207009</v>
+        <v>0.2607839207206863</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402242267</v>
+        <v>-5.550180402242266</v>
       </c>
       <c r="H14" t="n">
-        <v>1.322275094997493</v>
+        <v>1.322280786773293</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1424584749056315</v>
+        <v>0.1424590881227321</v>
       </c>
       <c r="J14" t="n">
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5462701630987605</v>
+        <v>0.5462725145363295</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1512,11 +1512,11 @@
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>1.322275094997493</v>
+        <v>1.322280786773293</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="n">
-        <v>0.1424584749056315</v>
+        <v>0.1424590881227321</v>
       </c>
     </row>
     <row r="15">
@@ -1539,25 +1539,25 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9874314721362993</v>
+        <v>0.9874314721362274</v>
       </c>
       <c r="F15" t="n">
-        <v>0.239394068030909</v>
+        <v>0.239394068030892</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.550717505065838</v>
+        <v>-5.55071750506583</v>
       </c>
       <c r="H15" t="n">
-        <v>1.344943131597913</v>
+        <v>1.344941371456769</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1370113824745772</v>
+        <v>0.1370112031663479</v>
       </c>
       <c r="J15" t="n">
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5723257205223948</v>
+        <v>0.5723249715137788</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1585,11 +1585,11 @@
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>1.344943131597913</v>
+        <v>1.344941371456769</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="n">
-        <v>0.1370113824745772</v>
+        <v>0.1370112031663479</v>
       </c>
     </row>
     <row r="16">
@@ -1612,13 +1612,13 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.686403728372541</v>
+        <v>4.68640372837228</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539429141829</v>
+        <v>0.3474539429141642</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184128068448</v>
+        <v>-5.549184128068436</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1665,25 +1665,25 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860211568548349</v>
+        <v>8.860211568542926</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334041382812</v>
+        <v>0.7940334041377936</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.51681017572383</v>
+        <v>-5.516810175723841</v>
       </c>
       <c r="H17" t="n">
-        <v>24.17540233688923</v>
+        <v>24.17540233686853</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9048021305862969</v>
+        <v>0.9048021305855222</v>
       </c>
       <c r="J17" t="n">
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>1.139501343231557</v>
+        <v>1.139501343231281</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1711,11 +1711,11 @@
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>24.17540233688923</v>
+        <v>24.17540233686853</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>0.9048021305862969</v>
+        <v>0.9048021305855222</v>
       </c>
     </row>
     <row r="18">
@@ -1738,25 +1738,25 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.836460769542236</v>
+        <v>3.83646076954262</v>
       </c>
       <c r="F18" t="n">
-        <v>0.537594161328863</v>
+        <v>0.5375941613289164</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.5492542449107</v>
+        <v>-5.549254244910705</v>
       </c>
       <c r="H18" t="n">
-        <v>6.50500096918884</v>
+        <v>6.505000887552828</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3829155054322021</v>
+        <v>0.3829155006267155</v>
       </c>
       <c r="J18" t="n">
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7122761610462522</v>
+        <v>0.7122761521073072</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1784,11 +1784,11 @@
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>6.50500096918884</v>
+        <v>6.505000887552828</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="n">
-        <v>0.3829155054322021</v>
+        <v>0.3829155006267155</v>
       </c>
     </row>
     <row r="19">
@@ -1820,16 +1820,16 @@
         <v>-13.21</v>
       </c>
       <c r="H19" t="n">
-        <v>1.929450655511177</v>
+        <v>1.92945065551117</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2207242330273633</v>
+        <v>0.2207242330273625</v>
       </c>
       <c r="J19" t="n">
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4861187777464959</v>
+        <v>0.4861187777464941</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1855,11 +1855,11 @@
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>1.929450655511177</v>
+        <v>1.92945065551117</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="n">
-        <v>0.2207242330273633</v>
+        <v>0.2207242330273625</v>
       </c>
     </row>
     <row r="20">
@@ -1891,16 +1891,16 @@
         <v>-0.332925</v>
       </c>
       <c r="H20" t="n">
-        <v>0.097946072896019</v>
+        <v>0.097946031993648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2307716612181017</v>
+        <v>0.2307715648476416</v>
       </c>
       <c r="J20" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9798169902750771</v>
+        <v>0.9798165811025918</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>0.097946072896019</v>
+        <v>0.097946031993648</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="n">
-        <v>0.2307716612181017</v>
+        <v>0.2307715648476416</v>
       </c>
     </row>
     <row r="21">
@@ -1970,16 +1970,16 @@
         <v>-0.332925</v>
       </c>
       <c r="H21" t="n">
-        <v>0.111424668221153</v>
+        <v>0.111424668221111</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2370482663300356</v>
+        <v>0.2370482663299462</v>
       </c>
       <c r="J21" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9759763714161513</v>
+        <v>0.9759763714157833</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>0.111424668221153</v>
+        <v>0.111424668221111</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="n">
-        <v>0.2370482663300356</v>
+        <v>0.2370482663299462</v>
       </c>
     </row>
     <row r="22">
@@ -2036,25 +2036,25 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115573177</v>
+        <v>4.826633115573237</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4979383117364357</v>
+        <v>0.497938311736443</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771118</v>
+        <v>-5.547262026771105</v>
       </c>
       <c r="H22" t="n">
-        <v>8.258552528461752</v>
+        <v>8.258552528461658</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3577758749568217</v>
+        <v>0.3577758749568176</v>
       </c>
       <c r="J22" t="n">
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7185144555540776</v>
+        <v>0.7185144555540589</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>8.258552528461752</v>
+        <v>8.258552528461658</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="n">
-        <v>0.3577758749568217</v>
+        <v>0.3577758749568176</v>
       </c>
     </row>
     <row r="23">
@@ -2109,25 +2109,25 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143874209327</v>
+        <v>2.511143874209252</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710873793104</v>
+        <v>0.3475710873793001</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
       </c>
       <c r="H23" t="n">
-        <v>1.166534631901427</v>
+        <v>1.166534079188301</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1614617603713631</v>
+        <v>0.1614616838695329</v>
       </c>
       <c r="J23" t="n">
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4645431286842252</v>
+        <v>0.4645429085801137</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>1.166534631901427</v>
+        <v>1.166534079188301</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="n">
-        <v>0.1614617603713631</v>
+        <v>0.1614616838695329</v>
       </c>
     </row>
     <row r="24">
@@ -2180,25 +2180,25 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955758988981</v>
+        <v>1.465955758988974</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898405304257</v>
+        <v>0.3345898405304245</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537625</v>
+        <v>-5.550743282537618</v>
       </c>
       <c r="H24" t="n">
-        <v>1.929450655511192</v>
+        <v>1.929450655511212</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1850435222999662</v>
+        <v>0.1850435222999681</v>
       </c>
       <c r="J24" t="n">
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5530458486325122</v>
+        <v>0.5530458486325199</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2226,11 +2226,11 @@
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>1.929450655511192</v>
+        <v>1.929450655511212</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="n">
-        <v>0.1850435222999662</v>
+        <v>0.1850435222999681</v>
       </c>
     </row>
     <row r="25">
@@ -2262,16 +2262,16 @@
         <v>-5.550726324289684</v>
       </c>
       <c r="H25" t="n">
-        <v>1.397262464635824</v>
+        <v>1.397262464635801</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1446075126848192</v>
+        <v>0.1446075126848168</v>
       </c>
       <c r="J25" t="n">
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5260404297460085</v>
+        <v>0.5260404297459998</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2299,11 +2299,11 @@
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>1.397262464635824</v>
+        <v>1.397262464635801</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="n">
-        <v>0.1446075126848192</v>
+        <v>0.1446075126848168</v>
       </c>
     </row>
     <row r="26">
@@ -2326,25 +2326,25 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652187360732</v>
+        <v>9.725652187360838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896739912092</v>
+        <v>0.7116896739912171</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
       </c>
       <c r="H26" t="n">
-        <v>6.508474472797413</v>
+        <v>6.508474433991062</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4762677079635825</v>
+        <v>0.4762677051238676</v>
       </c>
       <c r="J26" t="n">
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6692069948024361</v>
+        <v>0.6692069908123259</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2370,11 +2370,11 @@
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>6.508474472797413</v>
+        <v>6.508474433991062</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="n">
-        <v>0.4762677079635825</v>
+        <v>0.4762677051238676</v>
       </c>
     </row>
     <row r="27">
@@ -2397,25 +2397,25 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955884731691</v>
+        <v>0.1013955788142342</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406786063347258</v>
+        <v>0.2406785834077027</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
       </c>
       <c r="H27" t="n">
-        <v>0.099374624598613</v>
+        <v>0.099374631908636</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2358815261450911</v>
+        <v>0.2358815434965969</v>
       </c>
       <c r="J27" t="n">
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9800685226548006</v>
+        <v>0.9800686881101517</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2445,11 +2445,11 @@
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
-        <v>0.099374624598613</v>
+        <v>0.099374631908636</v>
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="n">
-        <v>0.2358815261450911</v>
+        <v>0.2358815434965969</v>
       </c>
     </row>
     <row r="28">
@@ -2481,16 +2481,16 @@
         <v>-5.55073108000964</v>
       </c>
       <c r="H28" t="n">
-        <v>5.400062163986131</v>
+        <v>5.400062163986017</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2363232689206387</v>
+        <v>0.2363232689206337</v>
       </c>
       <c r="J28" t="n">
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9107025662341921</v>
+        <v>0.910702566234173</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
-        <v>5.400062163986131</v>
+        <v>5.400062163986017</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="n">
-        <v>0.2363232689206387</v>
+        <v>0.2363232689206337</v>
       </c>
     </row>
     <row r="29">
@@ -2554,16 +2554,16 @@
         <v>-2.20113372715757</v>
       </c>
       <c r="H29" t="n">
-        <v>0.125284854949458</v>
+        <v>0.125284854783982</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2604287968803942</v>
+        <v>0.2604287965364203</v>
       </c>
       <c r="J29" t="n">
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9575253770609217</v>
+        <v>0.9575253757962239</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2595,11 +2595,11 @@
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>0.125284854949458</v>
+        <v>0.125284854783982</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="n">
-        <v>0.2604287968803942</v>
+        <v>0.2604287965364203</v>
       </c>
     </row>
     <row r="30">
@@ -2622,10 +2622,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612999394498</v>
+        <v>0.007105612030793992</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718414909479177</v>
+        <v>0.06718413993659518</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
+++ b/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
@@ -596,10 +596,10 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.81382211868636</v>
+        <v>17.8138221557582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516930204122</v>
+        <v>0.5695516942056902</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
@@ -614,7 +614,7 @@
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7364114408853523</v>
+        <v>0.7364114393528272</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -667,13 +667,13 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.555301938109797</v>
+        <v>6.941370064669262</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3122195099690078</v>
+        <v>0.3563056214683741</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.549610203628807</v>
+        <v>-13.21</v>
       </c>
       <c r="H3" t="n">
         <v>6.043377625746459</v>
@@ -685,7 +685,7 @@
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9935670270658874</v>
+        <v>0.8706318161174728</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -740,13 +740,13 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.379942361103503</v>
+        <v>20.06614449729091</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6654236103138812</v>
+        <v>0.7595227110328777</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.545419566892347</v>
+        <v>-13.21</v>
       </c>
       <c r="H4" t="n">
         <v>9.432019814940807</v>
@@ -758,7 +758,7 @@
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5365168022321551</v>
+        <v>0.4700464414683252</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -813,13 +813,13 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>8.294245457651105</v>
+        <v>22.34089329233793</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7479521116177738</v>
+        <v>0.845624122889358</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.544759808668629</v>
+        <v>-13.21</v>
       </c>
       <c r="H5" t="n">
         <v>14.61087781511413</v>
@@ -831,7 +831,7 @@
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7393998286106646</v>
+        <v>0.6539970279579241</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -886,13 +886,13 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.379942361103503</v>
+        <v>20.06614449729091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654236103138812</v>
+        <v>0.7595227110328777</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.545419566892347</v>
+        <v>-13.21</v>
       </c>
       <c r="H6" t="n">
         <v>9.432019814940807</v>
@@ -904,7 +904,7 @@
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5365168022321551</v>
+        <v>0.4700464414683252</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -959,13 +959,13 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>8.294245457651105</v>
+        <v>22.34089329233793</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7479521116177738</v>
+        <v>0.845624122889358</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.544759808668629</v>
+        <v>-13.21</v>
       </c>
       <c r="H7" t="n">
         <v>14.61087781511413</v>
@@ -977,7 +977,7 @@
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7393998286106646</v>
+        <v>0.6539970279579241</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1032,13 +1032,13 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3.354728548864318</v>
+        <v>9.055951952863756</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4600748711761332</v>
+        <v>0.5217370667757679</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.549441422997732</v>
+        <v>-13.21</v>
       </c>
       <c r="H8" t="n">
         <v>5.383403028843423</v>
@@ -1050,7 +1050,7 @@
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6741335848404946</v>
+        <v>0.5944602021812885</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1105,10 +1105,10 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697655376507</v>
+        <v>2.844697658355452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995809453898</v>
+        <v>0.2800995812387078</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
@@ -1123,7 +1123,7 @@
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.496540855947211</v>
+        <v>0.4965408554272375</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1176,13 +1176,13 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>5.008732116108107</v>
+        <v>12.89443785194213</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4516357717891071</v>
+        <v>0.4882834990804356</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.547686668594033</v>
+        <v>-13.21</v>
       </c>
       <c r="H10" t="n">
         <v>12.5815001355205</v>
@@ -1194,7 +1194,7 @@
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>1.054905917524998</v>
+        <v>0.9757307980375048</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1249,13 +1249,13 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>4.161856555785772</v>
+        <v>11.19787297467833</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3085281699143055</v>
+        <v>0.3487541619380949</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.549820853803196</v>
+        <v>-13.21</v>
       </c>
       <c r="H11" t="n">
         <v>9.577711144560674</v>
@@ -1267,7 +1267,7 @@
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.966831461481033</v>
+        <v>0.8553152162217491</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1322,10 +1322,10 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880216</v>
+        <v>12.48937108880223</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293748</v>
+        <v>0.7667243171293792</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
@@ -1340,7 +1340,7 @@
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6666701490697735</v>
+        <v>0.6666701490697698</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1393,13 +1393,13 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>2.611823932281909</v>
+        <v>7.096204240678009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4262860821805087</v>
+        <v>0.4864762432011431</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.548570274707247</v>
+        <v>-13.21</v>
       </c>
       <c r="H13" t="n">
         <v>5.315708870631331</v>
@@ -1411,7 +1411,7 @@
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8548611170712274</v>
+        <v>0.7490918652199673</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1466,13 +1466,13 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>1.016994536421335</v>
+        <v>2.761960143974892</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607839207206863</v>
+        <v>0.2975663924620373</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.550180402242266</v>
+        <v>-13.21</v>
       </c>
       <c r="H14" t="n">
         <v>1.322280786773293</v>
@@ -1484,7 +1484,7 @@
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5462725145363295</v>
+        <v>0.4787472366890582</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1539,13 +1539,13 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9874314721362274</v>
+        <v>2.677177424089021</v>
       </c>
       <c r="F15" t="n">
-        <v>0.239394068030892</v>
+        <v>0.2727280963681851</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.55071750506583</v>
+        <v>-13.21</v>
       </c>
       <c r="H15" t="n">
         <v>1.344941371456769</v>
@@ -1557,7 +1557,7 @@
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5723249715137788</v>
+        <v>0.5023728944354221</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1612,13 +1612,13 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.68640372837228</v>
+        <v>12.52385416926674</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3474539429141642</v>
+        <v>0.3900514209184453</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.549184128068436</v>
+        <v>-13.21</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1665,13 +1665,13 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>8.860211568542926</v>
+        <v>24.24659203144867</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7940334041377936</v>
+        <v>0.9074665159154658</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.516810175723841</v>
+        <v>-13.21</v>
       </c>
       <c r="H17" t="n">
         <v>24.17540233686853</v>
@@ -1683,7 +1683,7 @@
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>1.139501343231281</v>
+        <v>0.9970639298715548</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1738,13 +1738,13 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>3.83646076954262</v>
+        <v>10.42241535579358</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5375941613289164</v>
+        <v>0.6135132742779132</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.549254244910705</v>
+        <v>-13.21</v>
       </c>
       <c r="H18" t="n">
         <v>6.505000887552828</v>
@@ -1756,7 +1756,7 @@
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7122761521073072</v>
+        <v>0.6241356408749192</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1811,10 +1811,10 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093036182524</v>
+        <v>3.969093041339537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541183177003</v>
+        <v>0.4540541189076495</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
@@ -1829,7 +1829,7 @@
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4861187777464941</v>
+        <v>0.4861187771148835</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1882,10 +1882,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996364001457181</v>
+        <v>0.09996363129261256</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355252700336561</v>
+        <v>0.2355252494837661</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1900,7 +1900,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9798165811025918</v>
+        <v>0.9798166665928864</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1961,10 +1961,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673830273931</v>
+        <v>0.1141673728959025</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428832021681798</v>
+        <v>0.2428831806141352</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -1979,7 +1979,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9759763714157833</v>
+        <v>0.9759764580263021</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2036,13 +2036,13 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.826633115573237</v>
+        <v>12.48937108880226</v>
       </c>
       <c r="F22" t="n">
-        <v>0.497938311736443</v>
+        <v>0.5410628137990361</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.547262026771105</v>
+        <v>-13.21</v>
       </c>
       <c r="H22" t="n">
         <v>8.258552528461658</v>
@@ -2054,7 +2054,7 @@
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7185144555540589</v>
+        <v>0.6612464686765634</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2109,10 +2109,10 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143874209252</v>
+        <v>2.511143878215948</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710873793001</v>
+        <v>0.3475710879338727</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
@@ -2127,7 +2127,7 @@
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4645429085801137</v>
+        <v>0.4645429078389048</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2180,13 +2180,13 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465955758988974</v>
+        <v>3.969093041339538</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3345898405304245</v>
+        <v>0.3806549572065452</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.550743282537618</v>
+        <v>-13.21</v>
       </c>
       <c r="H24" t="n">
         <v>1.929450655511212</v>
@@ -2198,7 +2198,7 @@
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5530458486325199</v>
+        <v>0.4861187771148942</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2253,13 +2253,13 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116107088093233</v>
+        <v>2.957467104488082</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2748980962445054</v>
+        <v>0.306078473194127</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.550726324289684</v>
+        <v>-13.21</v>
       </c>
       <c r="H25" t="n">
         <v>1.397262464635801</v>
@@ -2271,7 +2271,7 @@
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5260404297459998</v>
+        <v>0.4724524112256044</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2326,10 +2326,10 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652187360838</v>
+        <v>9.725652207600666</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896739912171</v>
+        <v>0.7116896754722978</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
@@ -2344,7 +2344,7 @@
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6692069908123259</v>
+        <v>0.669206989419655</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2397,10 +2397,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013955788142342</v>
+        <v>0.1013986989748657</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406785834077027</v>
+        <v>0.2406859896067657</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2415,7 +2415,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9800686881101517</v>
+        <v>0.9800385302110093</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2472,13 +2472,13 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>2.491549780251542</v>
+        <v>6.766253892867912</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2594955561592948</v>
+        <v>0.2961120057049863</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.55073108000964</v>
+        <v>-13.21</v>
       </c>
       <c r="H28" t="n">
         <v>5.400062163986017</v>
@@ -2490,7 +2490,7 @@
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.910702566234173</v>
+        <v>0.7980874276204809</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2545,10 +2545,10 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423337395128</v>
+        <v>0.1308423263314998</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810911745942</v>
+        <v>0.2719810757756068</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
@@ -2563,7 +2563,7 @@
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9575253757962239</v>
+        <v>0.9575254300092648</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2622,10 +2622,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612030793992</v>
+        <v>0.007105612876140991</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718413993659518</v>
+        <v>0.06718414792941983</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>

--- a/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
+++ b/application/output_max_withoutMP_kapps_only_for_rxns_used_in_kapp_calc/compiled_results.xlsx
@@ -596,10 +596,10 @@
         <v>76.09</v>
       </c>
       <c r="E2" t="n">
-        <v>17.8138221557582</v>
+        <v>17.81382268889866</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5695516942056902</v>
+        <v>0.5695517112515016</v>
       </c>
       <c r="G2" t="n">
         <v>-13.21</v>
@@ -614,7 +614,7 @@
         <v>-13.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7364114393528272</v>
+        <v>0.7364114173131594</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -667,10 +667,10 @@
         <v>122.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.941370064669262</v>
+        <v>6.941370272413776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3563056214683741</v>
+        <v>0.3563056321320525</v>
       </c>
       <c r="G3" t="n">
         <v>-13.21</v>
@@ -685,7 +685,7 @@
         <v>-13.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8706318161174728</v>
+        <v>0.8706317900608044</v>
       </c>
       <c r="L3" t="n">
         <v>0.08</v>
@@ -740,10 +740,10 @@
         <v>90.08</v>
       </c>
       <c r="E4" t="n">
-        <v>20.06614449729091</v>
+        <v>20.06614509783982</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7595227110328777</v>
+        <v>0.759522733764227</v>
       </c>
       <c r="G4" t="n">
         <v>-13.21</v>
@@ -758,7 +758,7 @@
         <v>-13.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4700464414683252</v>
+        <v>0.470046427400557</v>
       </c>
       <c r="L4" t="n">
         <v>0.13</v>
@@ -813,10 +813,10 @@
         <v>90.08</v>
       </c>
       <c r="E5" t="n">
-        <v>22.34089329233793</v>
+        <v>22.34089326522185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.845624122889358</v>
+        <v>0.8456241218629883</v>
       </c>
       <c r="G5" t="n">
         <v>-13.21</v>
@@ -831,7 +831,7 @@
         <v>-13.21</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6539970279579241</v>
+        <v>0.653997028751708</v>
       </c>
       <c r="L5" t="n">
         <v>0.14</v>
@@ -886,10 +886,10 @@
         <v>90.08</v>
       </c>
       <c r="E6" t="n">
-        <v>20.06614449729091</v>
+        <v>20.06614509783982</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7595227110328777</v>
+        <v>0.759522733764227</v>
       </c>
       <c r="G6" t="n">
         <v>-13.21</v>
@@ -904,7 +904,7 @@
         <v>-13.21</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4700464414683252</v>
+        <v>0.470046427400557</v>
       </c>
       <c r="L6" t="n">
         <v>0.13</v>
@@ -959,10 +959,10 @@
         <v>90.08</v>
       </c>
       <c r="E7" t="n">
-        <v>22.34089329233793</v>
+        <v>22.34089326522185</v>
       </c>
       <c r="F7" t="n">
-        <v>0.845624122889358</v>
+        <v>0.8456241218629883</v>
       </c>
       <c r="G7" t="n">
         <v>-13.21</v>
@@ -977,7 +977,7 @@
         <v>-13.21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6539970279579241</v>
+        <v>0.653997028751708</v>
       </c>
       <c r="L7" t="n">
         <v>0.14</v>
@@ -1032,10 +1032,10 @@
         <v>137.11</v>
       </c>
       <c r="E8" t="n">
-        <v>9.055951952863756</v>
+        <v>9.055951957671432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5217370667757679</v>
+        <v>0.5217370670527507</v>
       </c>
       <c r="G8" t="n">
         <v>-13.21</v>
@@ -1050,7 +1050,7 @@
         <v>-13.21</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5944602021812885</v>
+        <v>0.594460201865698</v>
       </c>
       <c r="L8" t="n">
         <v>0.07000000000000001</v>
@@ -1105,10 +1105,10 @@
         <v>234.33</v>
       </c>
       <c r="E9" t="n">
-        <v>2.844697658355452</v>
+        <v>2.844697753843605</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2800995812387078</v>
+        <v>0.2800995906408289</v>
       </c>
       <c r="G9" t="n">
         <v>-13.21</v>
@@ -1123,7 +1123,7 @@
         <v>-13.21</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4965408554272375</v>
+        <v>0.4965408387598184</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
         <v>90.12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.89443785194213</v>
+        <v>12.89443799113937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4882834990804356</v>
+        <v>0.4882835043515236</v>
       </c>
       <c r="G10" t="n">
         <v>-13.21</v>
@@ -1194,7 +1194,7 @@
         <v>-13.21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9757307980375048</v>
+        <v>0.9757307875043558</v>
       </c>
       <c r="L10" t="n">
         <v>0.11</v>
@@ -1249,10 +1249,10 @@
         <v>74.12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19787297467833</v>
+        <v>11.19787298372048</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3487541619380949</v>
+        <v>0.34875416221971</v>
       </c>
       <c r="G11" t="n">
         <v>-13.21</v>
@@ -1267,7 +1267,7 @@
         <v>-13.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8553152162217491</v>
+        <v>0.8553152155310917</v>
       </c>
       <c r="L11" t="n">
         <v>0.04</v>
@@ -1322,10 +1322,10 @@
         <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.48937108880223</v>
+        <v>12.48937108880215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7667243171293792</v>
+        <v>0.7667243171293745</v>
       </c>
       <c r="G12" t="n">
         <v>-13.21</v>
@@ -1340,7 +1340,7 @@
         <v>-13.21</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6666701490697698</v>
+        <v>0.6666701490697738</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1393,10 +1393,10 @@
         <v>163.15</v>
       </c>
       <c r="E13" t="n">
-        <v>7.096204240678009</v>
+        <v>7.096204247996516</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4864762432011431</v>
+        <v>0.4864762437028592</v>
       </c>
       <c r="G13" t="n">
         <v>-13.21</v>
@@ -1411,7 +1411,7 @@
         <v>-13.21</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7490918652199673</v>
+        <v>0.7490918644474085</v>
       </c>
       <c r="L13" t="n">
         <v>0.15</v>
@@ -1466,10 +1466,10 @@
         <v>256.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.761960143974892</v>
+        <v>2.76196023337811</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2975663924620373</v>
+        <v>0.2975664020941072</v>
       </c>
       <c r="G14" t="n">
         <v>-13.21</v>
@@ -1484,7 +1484,7 @@
         <v>-13.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4787472366890582</v>
+        <v>0.4787472211922588</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1539,10 +1539,10 @@
         <v>242.44</v>
       </c>
       <c r="E15" t="n">
-        <v>2.677177424089021</v>
+        <v>2.677177425269656</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2727280963681851</v>
+        <v>0.2727280964884582</v>
       </c>
       <c r="G15" t="n">
         <v>-13.21</v>
@@ -1557,7 +1557,7 @@
         <v>-13.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5023728944354221</v>
+        <v>0.5023728942138757</v>
       </c>
       <c r="L15" t="n">
         <v>0.005</v>
@@ -1612,10 +1612,10 @@
         <v>74.12</v>
       </c>
       <c r="E16" t="n">
-        <v>12.52385416926674</v>
+        <v>12.52385380260014</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3900514209184453</v>
+        <v>0.3900514094987314</v>
       </c>
       <c r="G16" t="n">
         <v>-13.21</v>
@@ -1665,10 +1665,10 @@
         <v>89.06999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>24.24659203144867</v>
+        <v>24.24659199322306</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9074665159154658</v>
+        <v>0.907466514484813</v>
       </c>
       <c r="G17" t="n">
         <v>-13.21</v>
@@ -1683,7 +1683,7 @@
         <v>-13.21</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9970639298715548</v>
+        <v>0.9970639314434611</v>
       </c>
       <c r="L17" t="n">
         <v>0.6899999999999999</v>
@@ -1738,10 +1738,10 @@
         <v>140.09</v>
       </c>
       <c r="E18" t="n">
-        <v>10.42241535579358</v>
+        <v>10.4224156636676</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6135132742779132</v>
+        <v>0.613513292400852</v>
       </c>
       <c r="G18" t="n">
         <v>-13.21</v>
@@ -1756,7 +1756,7 @@
         <v>-13.21</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6241356408749192</v>
+        <v>0.6241356224382005</v>
       </c>
       <c r="L18" t="n">
         <v>0.07000000000000001</v>
@@ -1811,10 +1811,10 @@
         <v>272.25</v>
       </c>
       <c r="E19" t="n">
-        <v>3.969093041339537</v>
+        <v>3.969093169157485</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4540541189076495</v>
+        <v>0.4540541335296966</v>
       </c>
       <c r="G19" t="n">
         <v>-13.21</v>
@@ -1829,7 +1829,7 @@
         <v>-13.21</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4861187771148835</v>
+        <v>0.4861187614602486</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1882,10 +1882,10 @@
         <v>268.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09996363129261256</v>
+        <v>0.09996363147194666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2355252494837661</v>
+        <v>0.2355252499062969</v>
       </c>
       <c r="G20" t="n">
         <v>-0.332925</v>
@@ -1900,7 +1900,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9798166665928864</v>
+        <v>0.9798166648351015</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1961,10 +1961,10 @@
         <v>242.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1141673728959025</v>
+        <v>0.1141673732709542</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2428831806141352</v>
+        <v>0.2428831814120316</v>
       </c>
       <c r="G21" t="n">
         <v>-0.332925</v>
@@ -1979,7 +1979,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9759764580263021</v>
+        <v>0.9759764548201183</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -2036,10 +2036,10 @@
         <v>103.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.48937108880226</v>
+        <v>12.48937153880181</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5410628137990361</v>
+        <v>0.5410628332938546</v>
       </c>
       <c r="G22" t="n">
         <v>-13.21</v>
@@ -2054,7 +2054,7 @@
         <v>-13.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6612464686765634</v>
+        <v>0.6612464448514564</v>
       </c>
       <c r="L22" t="n">
         <v>0.13</v>
@@ -2109,10 +2109,10 @@
         <v>329.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.511143878215948</v>
+        <v>2.511143941130416</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3475710879338727</v>
+        <v>0.347571096641956</v>
       </c>
       <c r="G23" t="n">
         <v>-13.21</v>
@@ -2127,7 +2127,7 @@
         <v>-13.21</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4645429078389048</v>
+        <v>0.4645428962001973</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -2180,10 +2180,10 @@
         <v>228.24</v>
       </c>
       <c r="E24" t="n">
-        <v>3.969093041339538</v>
+        <v>3.969093043938707</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3806549572065452</v>
+        <v>0.380654957455818</v>
       </c>
       <c r="G24" t="n">
         <v>-13.21</v>
@@ -2198,7 +2198,7 @@
         <v>-13.21</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4861187771148942</v>
+        <v>0.4861187767965582</v>
       </c>
       <c r="L24" t="n">
         <v>0.0002</v>
@@ -2253,10 +2253,10 @@
         <v>246.3</v>
       </c>
       <c r="E25" t="n">
-        <v>2.957467104488082</v>
+        <v>2.957467102141706</v>
       </c>
       <c r="F25" t="n">
-        <v>0.306078473194127</v>
+        <v>0.3060784729512925</v>
       </c>
       <c r="G25" t="n">
         <v>-13.21</v>
@@ -2271,7 +2271,7 @@
         <v>-13.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4724524112256044</v>
+        <v>0.4724524116004356</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
@@ -2326,10 +2326,10 @@
         <v>174.15</v>
       </c>
       <c r="E26" t="n">
-        <v>9.725652207600666</v>
+        <v>9.725652213171694</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7116896754722978</v>
+        <v>0.7116896758799663</v>
       </c>
       <c r="G26" t="n">
         <v>-13.21</v>
@@ -2344,7 +2344,7 @@
         <v>-13.21</v>
       </c>
       <c r="K26" t="n">
-        <v>0.669206989419655</v>
+        <v>0.6692069890363213</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2397,10 +2397,10 @@
         <v>270.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1013986989748657</v>
+        <v>0.1013955798081718</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2406859896067657</v>
+        <v>0.2406785857669721</v>
       </c>
       <c r="G27" t="n">
         <v>-0.332925</v>
@@ -2415,7 +2415,7 @@
         <v>-0.332925</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9800385302110093</v>
+        <v>0.9800686785029569</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2472,10 +2472,10 @@
         <v>104.15</v>
       </c>
       <c r="E28" t="n">
-        <v>6.766253892867912</v>
+        <v>6.766253899865699</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2961120057049863</v>
+        <v>0.2961120060112309</v>
       </c>
       <c r="G28" t="n">
         <v>-13.21</v>
@@ -2490,7 +2490,7 @@
         <v>-13.21</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7980874276204809</v>
+        <v>0.7980874267950838</v>
       </c>
       <c r="L28" t="n">
         <v>0.001</v>
@@ -2545,10 +2545,10 @@
         <v>824.3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1308423263314998</v>
+        <v>0.1308423266048828</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2719810757756068</v>
+        <v>0.2719810763438862</v>
       </c>
       <c r="G29" t="n">
         <v>-2.20113372715757</v>
@@ -2563,7 +2563,7 @@
         <v>-2.201133727157571</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9575254300092648</v>
+        <v>0.9575254280086036</v>
       </c>
       <c r="L29" t="n">
         <v>0.14</v>
@@ -2622,10 +2622,10 @@
         <v>126.11004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007105612876140991</v>
+        <v>0.00710589806189561</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06718414792941983</v>
+        <v>0.06718684438393539</v>
       </c>
       <c r="G30" t="n">
         <v>-0.078476895921783</v>
